--- a/config/default/forms/app/pnc_danger_sign_follow_up_mother.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_mother.xlsx
@@ -14,131 +14,143 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="287">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label::en</t>
+  </si>
+  <si>
+    <t>label::hi</t>
+  </si>
+  <si>
+    <t>label::id</t>
+  </si>
+  <si>
+    <t>label::sw</t>
+  </si>
+  <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
+    <t>constraint_message::hi</t>
+  </si>
+  <si>
+    <t>constraint_message::id</t>
+  </si>
+  <si>
+    <t>constraint_message::sw</t>
+  </si>
+  <si>
+    <t>constraint_message::ne</t>
+  </si>
+  <si>
+    <t>constraint_message::es</t>
+  </si>
+  <si>
+    <t>constraint_message::fr</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>media::image</t>
+  </si>
+  <si>
+    <t>instance::tag</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>cht::notes</t>
+  </si>
   <si>
     <t>form_title</t>
   </si>
   <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label::en</t>
-  </si>
-  <si>
-    <t>label::hi</t>
-  </si>
-  <si>
-    <t>label::id</t>
-  </si>
-  <si>
-    <t>label::sw</t>
-  </si>
-  <si>
-    <t>label::ne</t>
-  </si>
-  <si>
-    <t>label::es</t>
-  </si>
-  <si>
-    <t>label::fr</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message::en</t>
-  </si>
-  <si>
-    <t>constraint_message::hi</t>
-  </si>
-  <si>
-    <t>constraint_message::id</t>
-  </si>
-  <si>
-    <t>constraint_message::sw</t>
-  </si>
-  <si>
-    <t>constraint_message::ne</t>
-  </si>
-  <si>
-    <t>constraint_message::es</t>
-  </si>
-  <si>
-    <t>constraint_message::fr</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
-    <t>hint::en</t>
-  </si>
-  <si>
-    <t>hint::hi</t>
-  </si>
-  <si>
-    <t>hint::id</t>
-  </si>
-  <si>
-    <t>hint::sw</t>
-  </si>
-  <si>
-    <t>hint::ne</t>
-  </si>
-  <si>
-    <t>hint::es</t>
-  </si>
-  <si>
-    <t>hint::fr</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>media::image</t>
-  </si>
-  <si>
-    <t>instance::tag</t>
-  </si>
-  <si>
-    <t>repeat_count</t>
-  </si>
-  <si>
     <t>PNC danger sign follow-up - mother</t>
   </si>
   <si>
@@ -148,51 +160,51 @@
     <t>pages</t>
   </si>
   <si>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
     <t>en</t>
   </si>
   <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>inputs</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>./source = 'user'</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
     <t>delivery_uuid</t>
   </si>
   <si>
     <t>Delivery Report ID</t>
   </si>
   <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>contact</t>
   </si>
   <si>
@@ -208,40 +220,46 @@
     <t>What is the patient's name?</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>db-object</t>
   </si>
   <si>
-    <t>yes_no</t>
+    <t>No</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>short_name</t>
   </si>
   <si>
     <t>Short Name</t>
   </si>
   <si>
-    <t>no</t>
+    <t>translate_woman_label</t>
+  </si>
+  <si>
+    <t>woman</t>
   </si>
   <si>
     <t>patient_id</t>
   </si>
   <si>
-    <t>No</t>
+    <t>the woman</t>
   </si>
   <si>
     <t>Patient ID</t>
   </si>
   <si>
-    <t>translate_woman_label</t>
+    <t>translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>woman-start</t>
+  </si>
+  <si>
+    <t>The woman</t>
   </si>
   <si>
     <t>date_of_birth</t>
@@ -250,21 +268,6 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>the woman</t>
-  </si>
-  <si>
-    <t>translate_woman_start_label</t>
-  </si>
-  <si>
-    <t>woman-start</t>
-  </si>
-  <si>
-    <t>The woman</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
@@ -280,6 +283,66 @@
     <t>Parent ID</t>
   </si>
   <si>
+    <t>chw_name</t>
+  </si>
+  <si>
+    <t>CHW name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>CHW phone</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>patient_age_in_years</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
+  </si>
+  <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>../inputs/contact/patient_id</t>
+  </si>
+  <si>
+    <t>patient_name</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name</t>
+  </si>
+  <si>
+    <t>patient_short_name</t>
+  </si>
+  <si>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
+  </si>
+  <si>
+    <t>patient_short_name_start</t>
+  </si>
+  <si>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
+  </si>
+  <si>
+    <t>t_danger_signs_referral_follow_up_date</t>
+  </si>
+  <si>
+    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
+  </si>
+  <si>
     <t>lmp_approximations</t>
   </si>
   <si>
@@ -292,21 +355,21 @@
     <t>upto_3_months_ago</t>
   </si>
   <si>
+    <t>t_danger_signs_referral_follow_up</t>
+  </si>
+  <si>
     <t>Upto 3 Months Ago</t>
   </si>
   <si>
+    <t>../danger_signs/r_danger_sign_present</t>
+  </si>
+  <si>
     <t>upto_4_months_ago</t>
   </si>
   <si>
     <t>Upto 4 Months Ago</t>
   </si>
   <si>
-    <t>chw_name</t>
-  </si>
-  <si>
-    <t>CHW name</t>
-  </si>
-  <si>
     <t>between_5_and_6_months_ago</t>
   </si>
   <si>
@@ -319,12 +382,6 @@
     <t>Between 7 And 8 Months Ago</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>CHW phone</t>
-  </si>
-  <si>
     <t>trimester1_choices</t>
   </si>
   <si>
@@ -334,9 +391,6 @@
     <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
   </si>
   <si>
-    <t>end group</t>
-  </si>
-  <si>
     <t>take_iron_and_folic_acid</t>
   </si>
   <si>
@@ -355,6 +409,12 @@
     <t>Sleep under an insecticide treated bednet</t>
   </si>
   <si>
+    <t>danger_signs</t>
+  </si>
+  <si>
+    <t>Danger Sign Follow-up - Mother</t>
+  </si>
+  <si>
     <t>go_for_anc_visit</t>
   </si>
   <si>
@@ -370,19 +430,37 @@
     <t>trimester2_choices</t>
   </si>
   <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>visit_confirm</t>
+  </si>
+  <si>
+    <t>Did ${patient_short_name} visit the health facility as recommended?</t>
+  </si>
+  <si>
+    <t>danger_sign_present</t>
+  </si>
+  <si>
+    <t>Is she still experiencing any danger signs?</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
+    <t>danger_signs_question_note</t>
+  </si>
+  <si>
     <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>patient_age_in_years</t>
-  </si>
-  <si>
-    <t>NO_LABEL</t>
+    <t xml:space="preserve">Please indicate which danger signs ${patient_short_name} is experiencing. </t>
+  </si>
+  <si>
+    <t>../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
   </si>
   <si>
     <t>conditions</t>
@@ -394,6 +472,12 @@
     <t>Heart condition</t>
   </si>
   <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
     <t>asthma</t>
   </si>
   <si>
@@ -403,12 +487,15 @@
     <t>high_blood_pressure</t>
   </si>
   <si>
-    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
-  </si>
-  <si>
     <t>High blood pressure</t>
   </si>
   <si>
+    <t>severe_headache</t>
+  </si>
+  <si>
+    <t>Severe headache</t>
+  </si>
+  <si>
     <t>known_diabetes</t>
   </si>
   <si>
@@ -421,10 +508,13 @@
     <t>Other</t>
   </si>
   <si>
-    <t>patient_uuid</t>
-  </si>
-  <si>
-    <t>../inputs/contact/_id</t>
+    <t>vaginal_bleeding</t>
+  </si>
+  <si>
+    <t>Vaginal bleeding</t>
+  </si>
+  <si>
+    <t>vaginal_discharge</t>
   </si>
   <si>
     <t>hiv_statuses</t>
@@ -433,271 +523,19 @@
     <t>known</t>
   </si>
   <si>
-    <t>../inputs/contact/patient_id</t>
+    <t>Foul smelling vaginal discharge</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>patient_name</t>
-  </si>
-  <si>
-    <t>../inputs/contact/name</t>
+    <t>convulsion</t>
+  </si>
+  <si>
+    <t>Convulsions</t>
   </si>
   <si>
     <t>fp_methods</t>
-  </si>
-  <si>
-    <t>patient_short_name</t>
-  </si>
-  <si>
-    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
-  </si>
-  <si>
-    <t>patient_short_name_start</t>
-  </si>
-  <si>
-    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
-  </si>
-  <si>
-    <t>t_danger_signs_referral_follow_up_date</t>
-  </si>
-  <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
-    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
-  </si>
-  <si>
-    <t>Progesterone only pills</t>
-  </si>
-  <si>
-    <t>Injectibles</t>
-  </si>
-  <si>
-    <t>t_danger_signs_referral_follow_up</t>
-  </si>
-  <si>
-    <t>Implants (1 rod)</t>
-  </si>
-  <si>
-    <t>Implants (2 rods)</t>
-  </si>
-  <si>
-    <t>IUD</t>
-  </si>
-  <si>
-    <t>../danger_signs/r_danger_sign_present</t>
-  </si>
-  <si>
-    <t>Condoms</t>
-  </si>
-  <si>
-    <t>Tubal ligation</t>
-  </si>
-  <si>
-    <t>Cycle beads</t>
-  </si>
-  <si>
-    <t>reasons_not_on_fp</t>
-  </si>
-  <si>
-    <t>danger_signs</t>
-  </si>
-  <si>
-    <t>Danger Sign Follow-up - Mother</t>
-  </si>
-  <si>
-    <t>Wants to get pregnant</t>
-  </si>
-  <si>
-    <t>Did not want FP</t>
-  </si>
-  <si>
-    <t>follow_up_methods</t>
-  </si>
-  <si>
-    <t>in_person</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>by_phone</t>
-  </si>
-  <si>
-    <t>By phone</t>
-  </si>
-  <si>
-    <t>reasons_for_missing_visit</t>
-  </si>
-  <si>
-    <t>not_reminded</t>
-  </si>
-  <si>
-    <t>She was not reminded</t>
-  </si>
-  <si>
-    <t>travelled</t>
-  </si>
-  <si>
-    <t>She had travelled</t>
-  </si>
-  <si>
-    <t>no_lab_results</t>
-  </si>
-  <si>
-    <t>No Lab results yet</t>
-  </si>
-  <si>
-    <t>too_early</t>
-  </si>
-  <si>
-    <t>It is too early to start clinic</t>
-  </si>
-  <si>
-    <t>relocated</t>
-  </si>
-  <si>
-    <t>Relocated</t>
-  </si>
-  <si>
-    <t>actions_taken</t>
-  </si>
-  <si>
-    <t>referred</t>
-  </si>
-  <si>
-    <t>Referred the mother</t>
-  </si>
-  <si>
-    <t>key_message</t>
-  </si>
-  <si>
-    <t>Provided key health message</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>accompany</t>
-  </si>
-  <si>
-    <t>Accompany the mother to facility</t>
-  </si>
-  <si>
-    <t>recent_foods</t>
-  </si>
-  <si>
-    <t>carbohydrates</t>
-  </si>
-  <si>
-    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
-  </si>
-  <si>
-    <t>visit_confirm</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>Body building foods: Milk, eggs, meat</t>
-  </si>
-  <si>
-    <t>Did ${patient_short_name} visit the health facility as recommended?</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>Fruits: Mangoes, ripe bananas, oranges</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
-    <t>pos_neg</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>reasons_to_discontinue</t>
-  </si>
-  <si>
-    <t>wants_to_get_pregnant</t>
-  </si>
-  <si>
-    <t>danger_sign_present</t>
-  </si>
-  <si>
-    <t>Is she still experiencing any danger signs?</t>
-  </si>
-  <si>
-    <t>feels_sick_when_using_it</t>
-  </si>
-  <si>
-    <t>Feels sick when using it</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>danger_signs_question_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate which danger signs ${patient_short_name} is experiencing. </t>
-  </si>
-  <si>
-    <t>../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
-  </si>
-  <si>
-    <t>fever</t>
-  </si>
-  <si>
-    <t>Fever</t>
-  </si>
-  <si>
-    <t>severe_headache</t>
-  </si>
-  <si>
-    <t>Severe headache</t>
-  </si>
-  <si>
-    <t>vaginal_bleeding</t>
-  </si>
-  <si>
-    <t>Vaginal bleeding</t>
-  </si>
-  <si>
-    <t>vaginal_discharge</t>
-  </si>
-  <si>
-    <t>Foul smelling vaginal discharge</t>
-  </si>
-  <si>
-    <t>convulsion</t>
-  </si>
-  <si>
-    <t>Convulsions</t>
   </si>
   <si>
     <t>r_danger_sign_present</t>
@@ -741,82 +579,271 @@
     <t>custom_translations</t>
   </si>
   <si>
+    <t>Combined oral contraceptives</t>
+  </si>
+  <si>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
+    <t>Injectibles</t>
+  </si>
+  <si>
     <t>select_one translate_woman_label</t>
   </si>
   <si>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
     <t>custom_woman_label_translator</t>
   </si>
   <si>
+    <t>Implants (2 rods)</t>
+  </si>
+  <si>
     <t>"woman"</t>
   </si>
   <si>
+    <t>IUD</t>
+  </si>
+  <si>
+    <t>Condoms</t>
+  </si>
+  <si>
     <t>custom_woman_label</t>
   </si>
   <si>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
+  </si>
+  <si>
     <t>jr:choice-name(${custom_woman_label_translator},'${custom_woman_label_translator}')</t>
   </si>
   <si>
+    <t>reasons_not_on_fp</t>
+  </si>
+  <si>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
+    <t>Did not want FP</t>
+  </si>
+  <si>
+    <t>follow_up_methods</t>
+  </si>
+  <si>
     <t>select_one translate_woman_start_label</t>
   </si>
   <si>
     <t>custom_woman_start_label_translator</t>
   </si>
   <si>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
+    <t>by_phone</t>
+  </si>
+  <si>
+    <t>By phone</t>
+  </si>
+  <si>
     <t>"woman-start"</t>
   </si>
   <si>
     <t>custom_woman_start_label</t>
   </si>
   <si>
+    <t>reasons_for_missing_visit</t>
+  </si>
+  <si>
+    <t>not_reminded</t>
+  </si>
+  <si>
+    <t>She was not reminded</t>
+  </si>
+  <si>
     <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
   </si>
   <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>She had travelled</t>
+  </si>
+  <si>
+    <t>no_lab_results</t>
+  </si>
+  <si>
+    <t>No Lab results yet</t>
+  </si>
+  <si>
+    <t>too_early</t>
+  </si>
+  <si>
+    <t>It is too early to start clinic</t>
+  </si>
+  <si>
+    <t>relocated</t>
+  </si>
+  <si>
+    <t>Relocated</t>
+  </si>
+  <si>
+    <t>actions_taken</t>
+  </si>
+  <si>
+    <t>referred</t>
+  </si>
+  <si>
+    <t>Referred the mother</t>
+  </si>
+  <si>
+    <t>key_message</t>
+  </si>
+  <si>
+    <t>Provided key health message</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>Accompany the mother to facility</t>
+  </si>
+  <si>
+    <t>recent_foods</t>
+  </si>
+  <si>
+    <t>carbohydrates</t>
+  </si>
+  <si>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>Body building foods: Milk, eggs, meat</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>pos_neg</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>reasons_to_discontinue</t>
+  </si>
+  <si>
+    <t>wants_to_get_pregnant</t>
+  </si>
+  <si>
+    <t>feels_sick_when_using_it</t>
+  </si>
+  <si>
+    <t>Feels sick when using it</t>
+  </si>
+  <si>
     <t>__visited_hf</t>
   </si>
   <si>
     <t>${visit_confirm}</t>
   </si>
   <si>
+    <t>Whether or not the woman went to the health facility as recommended.</t>
+  </si>
+  <si>
     <t>__still_experiencing_danger_sign</t>
   </si>
   <si>
     <t>${danger_sign_present}</t>
   </si>
   <si>
+    <t>Whether or not the woman is still experiencing any danger signs.</t>
+  </si>
+  <si>
     <t>__fever</t>
   </si>
   <si>
     <t>${fever}</t>
   </si>
   <si>
+    <t>Whether or not the woman has a fever.</t>
+  </si>
+  <si>
     <t>__severe_headache</t>
   </si>
   <si>
     <t>${severe_headache}</t>
   </si>
   <si>
+    <t>Whether or not the woman is suffering from severe headaches.</t>
+  </si>
+  <si>
     <t>__vaginal_bleeding</t>
   </si>
   <si>
     <t>${vaginal_bleeding}</t>
   </si>
   <si>
+    <t>Whether or not the woman is experiencing vaginal bleeding.</t>
+  </si>
+  <si>
     <t>__vaginal_discharge</t>
   </si>
   <si>
     <t>${vaginal_discharge}</t>
   </si>
   <si>
+    <t>Whether or not the woman is experiencing foul smelling vaginal discharge.</t>
+  </si>
+  <si>
     <t>__convulsions</t>
   </si>
   <si>
     <t>${convulsion}</t>
   </si>
   <si>
+    <t>Whether or not the woman is suffering from convulsions.</t>
+  </si>
+  <si>
     <t>__has_danger_sign</t>
   </si>
   <si>
     <t>${r_danger_sign_present}</t>
+  </si>
+  <si>
+    <t>Whether or not any danger signs are present.</t>
   </si>
   <si>
     <t>meta</t>
@@ -873,11 +900,6 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
     </font>
     <font>
       <b/>
@@ -887,6 +909,16 @@
     </font>
     <font/>
     <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -897,11 +929,6 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -932,14 +959,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1015,113 +1042,110 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1130,25 +1154,31 @@
     <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1212,1076 +1242,1078 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
+      <c r="C5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
+      <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
       <c r="AH14" s="29"/>
       <c r="AI14" s="29"/>
       <c r="AJ14" s="29"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
+      <c r="C15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
+      <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
+      <c r="B18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
+      <c r="A19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
+      <c r="A20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
+      <c r="A21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
+      <c r="A22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
+      <c r="A23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="AF24" s="30"/>
@@ -2291,13 +2323,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="32" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
@@ -2317,7 +2349,7 @@
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
       <c r="U25" s="33" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="V25" s="33"/>
       <c r="W25" s="33"/>
@@ -2339,13 +2371,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="32" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -2365,7 +2397,7 @@
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
       <c r="U26" s="33" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="V26" s="33"/>
       <c r="W26" s="33"/>
@@ -2387,13 +2419,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="32" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -2402,7 +2434,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="33" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
@@ -2415,7 +2447,7 @@
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
       <c r="U27" s="34" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="V27" s="33"/>
       <c r="W27" s="33"/>
@@ -2437,13 +2469,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="32" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
@@ -2463,7 +2495,7 @@
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
       <c r="U28" s="34" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="V28" s="33"/>
       <c r="W28" s="33"/>
@@ -2485,13 +2517,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
@@ -2511,7 +2543,7 @@
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
       <c r="U29" s="34" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="V29" s="33"/>
       <c r="W29" s="33"/>
@@ -2533,13 +2565,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="32" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -2559,7 +2591,7 @@
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
       <c r="U30" s="34" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="V30" s="33"/>
       <c r="W30" s="33"/>
@@ -2581,13 +2613,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="32" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
@@ -2607,7 +2639,7 @@
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="34" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="V31" s="33"/>
       <c r="W31" s="33"/>
@@ -2629,13 +2661,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="32" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -2655,7 +2687,7 @@
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="34" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="V32" s="33"/>
       <c r="W32" s="33"/>
@@ -2687,13 +2719,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="39" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
@@ -2733,13 +2765,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="43" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
@@ -2748,7 +2780,7 @@
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35" s="41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K35" s="41"/>
       <c r="L35" s="41"/>
@@ -2779,13 +2811,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="43" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
@@ -2794,7 +2826,7 @@
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
       <c r="J36" s="41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="41"/>
@@ -2819,19 +2851,19 @@
       <c r="AE36" s="41"/>
       <c r="AF36" s="41"/>
       <c r="AG36" s="41"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="45"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="43" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
@@ -2841,7 +2873,7 @@
       <c r="I37" s="41"/>
       <c r="J37" s="41"/>
       <c r="K37" s="40" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
@@ -2873,13 +2905,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="43" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
@@ -2888,10 +2920,10 @@
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K38" s="40" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
@@ -2921,13 +2953,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="43" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
@@ -2936,10 +2968,10 @@
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
       <c r="J39" s="41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K39" s="40" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
@@ -2969,13 +3001,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="43" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
@@ -2984,10 +3016,10 @@
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K40" s="40" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
@@ -3017,13 +3049,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="43" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
@@ -3032,10 +3064,10 @@
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
       <c r="J41" s="41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K41" s="40" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
@@ -3065,13 +3097,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="43" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
@@ -3080,10 +3112,10 @@
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
       <c r="J42" s="41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K42" s="40" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
@@ -3113,13 +3145,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="43" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
@@ -3139,7 +3171,7 @@
       <c r="S43" s="41"/>
       <c r="T43" s="41"/>
       <c r="U43" s="40" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="V43" s="41"/>
       <c r="W43" s="41"/>
@@ -3161,13 +3193,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="39" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
@@ -3177,7 +3209,7 @@
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
       <c r="K44" s="40" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="L44" s="41"/>
       <c r="M44" s="41"/>
@@ -3203,19 +3235,19 @@
         <v>51</v>
       </c>
       <c r="AG44" s="41"/>
-      <c r="AH44" s="45"/>
-      <c r="AI44" s="45"/>
-      <c r="AJ44" s="45"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="43" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
@@ -3225,7 +3257,7 @@
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
       <c r="K45" s="40" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="L45" s="41"/>
       <c r="M45" s="41"/>
@@ -3251,19 +3283,19 @@
         <v>51</v>
       </c>
       <c r="AG45" s="41"/>
-      <c r="AH45" s="45"/>
-      <c r="AI45" s="45"/>
-      <c r="AJ45" s="45"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="44"/>
+      <c r="AJ45" s="44"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="43" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
@@ -3273,7 +3305,7 @@
       <c r="I46" s="41"/>
       <c r="J46" s="41"/>
       <c r="K46" s="40" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
@@ -3305,13 +3337,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="39" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -3347,19 +3379,19 @@
         <v>51</v>
       </c>
       <c r="AG47" s="41"/>
-      <c r="AH47" s="46"/>
-      <c r="AI47" s="46"/>
-      <c r="AJ47" s="46"/>
+      <c r="AH47" s="45"/>
+      <c r="AI47" s="45"/>
+      <c r="AJ47" s="45"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="39" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
@@ -3379,7 +3411,7 @@
       <c r="S48" s="41"/>
       <c r="T48" s="41"/>
       <c r="U48" s="40" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="V48" s="41"/>
       <c r="W48" s="41"/>
@@ -3393,19 +3425,19 @@
       <c r="AE48" s="41"/>
       <c r="AF48" s="41"/>
       <c r="AG48" s="41"/>
-      <c r="AH48" s="46"/>
-      <c r="AI48" s="46"/>
-      <c r="AJ48" s="46"/>
+      <c r="AH48" s="45"/>
+      <c r="AI48" s="45"/>
+      <c r="AJ48" s="45"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="39" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
@@ -3425,7 +3457,7 @@
       <c r="S49" s="41"/>
       <c r="T49" s="41"/>
       <c r="U49" s="40" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="V49" s="41"/>
       <c r="W49" s="41"/>
@@ -3439,19 +3471,19 @@
       <c r="AE49" s="41"/>
       <c r="AF49" s="41"/>
       <c r="AG49" s="41"/>
-      <c r="AH49" s="46"/>
-      <c r="AI49" s="46"/>
-      <c r="AJ49" s="46"/>
+      <c r="AH49" s="45"/>
+      <c r="AI49" s="45"/>
+      <c r="AJ49" s="45"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="39" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
@@ -3471,7 +3503,7 @@
       <c r="S50" s="41"/>
       <c r="T50" s="41"/>
       <c r="U50" s="40" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="V50" s="41"/>
       <c r="W50" s="41"/>
@@ -3485,19 +3517,19 @@
       <c r="AE50" s="41"/>
       <c r="AF50" s="41"/>
       <c r="AG50" s="41"/>
-      <c r="AH50" s="46"/>
-      <c r="AI50" s="46"/>
-      <c r="AJ50" s="46"/>
+      <c r="AH50" s="45"/>
+      <c r="AI50" s="45"/>
+      <c r="AJ50" s="45"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="39" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
@@ -3517,7 +3549,7 @@
       <c r="S51" s="41"/>
       <c r="T51" s="41"/>
       <c r="U51" s="40" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="V51" s="41"/>
       <c r="W51" s="41"/>
@@ -3531,13 +3563,13 @@
       <c r="AE51" s="41"/>
       <c r="AF51" s="41"/>
       <c r="AG51" s="41"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="46"/>
-      <c r="AJ51" s="46"/>
+      <c r="AH51" s="45"/>
+      <c r="AI51" s="45"/>
+      <c r="AJ51" s="45"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="39" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B52" s="43"/>
       <c r="C52" s="40"/>
@@ -3571,13 +3603,13 @@
       <c r="AE52" s="41"/>
       <c r="AF52" s="41"/>
       <c r="AG52" s="41"/>
-      <c r="AH52" s="47"/>
-      <c r="AI52" s="47"/>
-      <c r="AJ52" s="47"/>
+      <c r="AH52" s="46"/>
+      <c r="AI52" s="46"/>
+      <c r="AJ52" s="46"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="43" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B53" s="43"/>
       <c r="C53" s="40"/>
@@ -3611,9 +3643,9 @@
       <c r="AE53" s="41"/>
       <c r="AF53" s="41"/>
       <c r="AG53" s="41"/>
-      <c r="AH53" s="47"/>
-      <c r="AI53" s="47"/>
-      <c r="AJ53" s="47"/>
+      <c r="AH53" s="46"/>
+      <c r="AI53" s="46"/>
+      <c r="AJ53" s="46"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="30"/>
@@ -3629,13 +3661,13 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="49" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="50"/>
@@ -3677,10 +3709,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C56" s="51"/>
       <c r="D56" s="51"/>
@@ -3701,7 +3733,7 @@
       <c r="S56" s="51"/>
       <c r="T56" s="51"/>
       <c r="U56" s="50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="V56" s="51"/>
       <c r="W56" s="51"/>
@@ -3715,16 +3747,18 @@
       <c r="AE56" s="51"/>
       <c r="AF56" s="50"/>
       <c r="AG56" s="50"/>
-      <c r="AH56" s="53"/>
+      <c r="AH56" s="55" t="s">
+        <v>252</v>
+      </c>
       <c r="AI56" s="53"/>
       <c r="AJ56" s="53"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B57" s="54" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C57" s="51"/>
       <c r="D57" s="51"/>
@@ -3745,7 +3779,7 @@
       <c r="S57" s="51"/>
       <c r="T57" s="51"/>
       <c r="U57" s="50" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="V57" s="51"/>
       <c r="W57" s="51"/>
@@ -3759,16 +3793,18 @@
       <c r="AE57" s="51"/>
       <c r="AF57" s="50"/>
       <c r="AG57" s="50"/>
-      <c r="AH57" s="53"/>
+      <c r="AH57" s="55" t="s">
+        <v>255</v>
+      </c>
       <c r="AI57" s="53"/>
       <c r="AJ57" s="53"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C58" s="51"/>
       <c r="D58" s="51"/>
@@ -3789,7 +3825,7 @@
       <c r="S58" s="51"/>
       <c r="T58" s="51"/>
       <c r="U58" s="50" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="V58" s="51"/>
       <c r="W58" s="51"/>
@@ -3803,16 +3839,18 @@
       <c r="AE58" s="51"/>
       <c r="AF58" s="50"/>
       <c r="AG58" s="50"/>
-      <c r="AH58" s="53"/>
+      <c r="AH58" s="55" t="s">
+        <v>258</v>
+      </c>
       <c r="AI58" s="53"/>
       <c r="AJ58" s="53"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C59" s="51"/>
       <c r="D59" s="51"/>
@@ -3833,7 +3871,7 @@
       <c r="S59" s="51"/>
       <c r="T59" s="51"/>
       <c r="U59" s="50" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="V59" s="51"/>
       <c r="W59" s="51"/>
@@ -3847,16 +3885,18 @@
       <c r="AE59" s="51"/>
       <c r="AF59" s="50"/>
       <c r="AG59" s="50"/>
-      <c r="AH59" s="53"/>
+      <c r="AH59" s="55" t="s">
+        <v>261</v>
+      </c>
       <c r="AI59" s="53"/>
       <c r="AJ59" s="53"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B60" s="54" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C60" s="51"/>
       <c r="D60" s="51"/>
@@ -3877,7 +3917,7 @@
       <c r="S60" s="51"/>
       <c r="T60" s="51"/>
       <c r="U60" s="50" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="V60" s="51"/>
       <c r="W60" s="51"/>
@@ -3891,16 +3931,18 @@
       <c r="AE60" s="51"/>
       <c r="AF60" s="50"/>
       <c r="AG60" s="50"/>
-      <c r="AH60" s="53"/>
+      <c r="AH60" s="55" t="s">
+        <v>264</v>
+      </c>
       <c r="AI60" s="53"/>
       <c r="AJ60" s="53"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B61" s="54" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C61" s="51"/>
       <c r="D61" s="51"/>
@@ -3921,7 +3963,7 @@
       <c r="S61" s="51"/>
       <c r="T61" s="51"/>
       <c r="U61" s="50" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="V61" s="51"/>
       <c r="W61" s="51"/>
@@ -3935,16 +3977,18 @@
       <c r="AE61" s="51"/>
       <c r="AF61" s="50"/>
       <c r="AG61" s="50"/>
-      <c r="AH61" s="53"/>
+      <c r="AH61" s="55" t="s">
+        <v>267</v>
+      </c>
       <c r="AI61" s="53"/>
       <c r="AJ61" s="53"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B62" s="54" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C62" s="51"/>
       <c r="D62" s="51"/>
@@ -3965,7 +4009,7 @@
       <c r="S62" s="51"/>
       <c r="T62" s="51"/>
       <c r="U62" s="50" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="V62" s="51"/>
       <c r="W62" s="51"/>
@@ -3979,16 +4023,18 @@
       <c r="AE62" s="51"/>
       <c r="AF62" s="50"/>
       <c r="AG62" s="50"/>
-      <c r="AH62" s="53"/>
+      <c r="AH62" s="55" t="s">
+        <v>270</v>
+      </c>
       <c r="AI62" s="53"/>
       <c r="AJ62" s="53"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B63" s="54" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
@@ -4009,7 +4055,7 @@
       <c r="S63" s="51"/>
       <c r="T63" s="51"/>
       <c r="U63" s="50" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="V63" s="51"/>
       <c r="W63" s="51"/>
@@ -4023,48 +4069,50 @@
       <c r="AE63" s="51"/>
       <c r="AF63" s="50"/>
       <c r="AG63" s="50"/>
-      <c r="AH63" s="53"/>
+      <c r="AH63" s="55" t="s">
+        <v>273</v>
+      </c>
       <c r="AI63" s="53"/>
       <c r="AJ63" s="53"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="C64" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="56"/>
+      <c r="A64" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="57"/>
       <c r="E64" s="53"/>
       <c r="F64" s="53"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="56"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="56"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
       <c r="U64" s="53"/>
-      <c r="V64" s="56"/>
-      <c r="W64" s="56"/>
-      <c r="X64" s="56"/>
-      <c r="Y64" s="56"/>
-      <c r="Z64" s="56"/>
-      <c r="AA64" s="56"/>
-      <c r="AB64" s="56"/>
-      <c r="AC64" s="56"/>
-      <c r="AD64" s="56"/>
-      <c r="AE64" s="56"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="57"/>
+      <c r="Z64" s="57"/>
+      <c r="AA64" s="57"/>
+      <c r="AB64" s="57"/>
+      <c r="AC64" s="57"/>
+      <c r="AD64" s="57"/>
+      <c r="AE64" s="57"/>
       <c r="AF64" s="53"/>
       <c r="AG64" s="53"/>
       <c r="AH64" s="53"/>
@@ -4073,10 +4121,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B65" s="54" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C65" s="51"/>
       <c r="D65" s="51"/>
@@ -4097,7 +4145,7 @@
       <c r="S65" s="51"/>
       <c r="T65" s="51"/>
       <c r="U65" s="50" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="V65" s="51"/>
       <c r="W65" s="51"/>
@@ -4117,10 +4165,10 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B66" s="54" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C66" s="51"/>
       <c r="D66" s="51"/>
@@ -4141,7 +4189,7 @@
       <c r="S66" s="51"/>
       <c r="T66" s="51"/>
       <c r="U66" s="50" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="V66" s="51"/>
       <c r="W66" s="51"/>
@@ -4161,10 +4209,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B67" s="54" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C67" s="51"/>
       <c r="D67" s="51"/>
@@ -4185,7 +4233,7 @@
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
       <c r="U67" s="50" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="V67" s="51"/>
       <c r="W67" s="51"/>
@@ -4205,10 +4253,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C68" s="51"/>
       <c r="D68" s="51"/>
@@ -4229,7 +4277,7 @@
       <c r="S68" s="51"/>
       <c r="T68" s="51"/>
       <c r="U68" s="50" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="V68" s="51"/>
       <c r="W68" s="51"/>
@@ -4249,10 +4297,10 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B69" s="54" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C69" s="51"/>
       <c r="D69" s="51"/>
@@ -4273,7 +4321,7 @@
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
       <c r="U69" s="50" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="V69" s="51"/>
       <c r="W69" s="51"/>
@@ -4293,10 +4341,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="49" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B70" s="54" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C70" s="51"/>
       <c r="D70" s="51"/>
@@ -4317,7 +4365,7 @@
       <c r="S70" s="51"/>
       <c r="T70" s="51"/>
       <c r="U70" s="50" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="V70" s="51"/>
       <c r="W70" s="51"/>
@@ -4336,41 +4384,41 @@
       <c r="AJ70" s="53"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B71" s="55" t="s">
-        <v>265</v>
+      <c r="A71" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="C71" s="53"/>
-      <c r="D71" s="56"/>
+      <c r="D71" s="57"/>
       <c r="E71" s="53"/>
       <c r="F71" s="53"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="56"/>
-      <c r="W71" s="56"/>
-      <c r="X71" s="56"/>
-      <c r="Y71" s="56"/>
-      <c r="Z71" s="56"/>
-      <c r="AA71" s="56"/>
-      <c r="AB71" s="56"/>
-      <c r="AC71" s="56"/>
-      <c r="AD71" s="56"/>
-      <c r="AE71" s="56"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="57"/>
+      <c r="S71" s="57"/>
+      <c r="T71" s="57"/>
+      <c r="U71" s="57"/>
+      <c r="V71" s="57"/>
+      <c r="W71" s="57"/>
+      <c r="X71" s="57"/>
+      <c r="Y71" s="57"/>
+      <c r="Z71" s="57"/>
+      <c r="AA71" s="57"/>
+      <c r="AB71" s="57"/>
+      <c r="AC71" s="57"/>
+      <c r="AD71" s="57"/>
+      <c r="AE71" s="57"/>
       <c r="AF71" s="53"/>
       <c r="AG71" s="53"/>
       <c r="AH71" s="53"/>
@@ -4378,41 +4426,41 @@
       <c r="AJ71" s="53"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B72" s="55" t="s">
-        <v>44</v>
+      <c r="A72" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>49</v>
       </c>
       <c r="C72" s="53"/>
-      <c r="D72" s="56"/>
+      <c r="D72" s="57"/>
       <c r="E72" s="53"/>
       <c r="F72" s="53"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="56"/>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="56"/>
-      <c r="R72" s="56"/>
-      <c r="S72" s="56"/>
-      <c r="T72" s="56"/>
-      <c r="U72" s="56"/>
-      <c r="V72" s="56"/>
-      <c r="W72" s="56"/>
-      <c r="X72" s="56"/>
-      <c r="Y72" s="56"/>
-      <c r="Z72" s="56"/>
-      <c r="AA72" s="56"/>
-      <c r="AB72" s="56"/>
-      <c r="AC72" s="56"/>
-      <c r="AD72" s="56"/>
-      <c r="AE72" s="56"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="57"/>
+      <c r="N72" s="57"/>
+      <c r="O72" s="57"/>
+      <c r="P72" s="57"/>
+      <c r="Q72" s="57"/>
+      <c r="R72" s="57"/>
+      <c r="S72" s="57"/>
+      <c r="T72" s="57"/>
+      <c r="U72" s="57"/>
+      <c r="V72" s="57"/>
+      <c r="W72" s="57"/>
+      <c r="X72" s="57"/>
+      <c r="Y72" s="57"/>
+      <c r="Z72" s="57"/>
+      <c r="AA72" s="57"/>
+      <c r="AB72" s="57"/>
+      <c r="AC72" s="57"/>
+      <c r="AD72" s="57"/>
+      <c r="AE72" s="57"/>
       <c r="AF72" s="53"/>
       <c r="AG72" s="53"/>
       <c r="AH72" s="53"/>
@@ -4447,56 +4495,56 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>12</v>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -4520,13 +4568,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4549,8 +4597,8 @@
       <c r="V3" s="25"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="26"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -4574,24 +4622,24 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>78</v>
-      </c>
       <c r="C5" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -4802,87 +4850,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="A2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8">
         <f>NOW()</f>
-        <v>43746.56637</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+        <v>43747.52795</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4907,57 +4955,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>12</v>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -4982,13 +5030,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5038,13 +5086,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -5069,13 +5117,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -5100,13 +5148,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -5131,13 +5179,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5162,13 +5210,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -5218,13 +5266,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -5249,13 +5297,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -5280,13 +5328,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -5311,13 +5359,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -5342,13 +5390,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -5373,13 +5421,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -5429,13 +5477,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="25" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -5460,13 +5508,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -5491,13 +5539,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="25" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -5522,13 +5570,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -5553,13 +5601,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -5584,13 +5632,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -5640,13 +5688,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -5671,13 +5719,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="25" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -5702,13 +5750,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -5733,13 +5781,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="25" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -5764,13 +5812,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -5820,13 +5868,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -5851,13 +5899,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -5907,121 +5955,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -6032,26 +6080,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6062,13 +6110,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
@@ -6080,26 +6128,26 @@
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
       <c r="M48" s="26"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -6111,240 +6159,240 @@
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="26" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>191</v>
+      <c r="A63" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>194</v>
+      <c r="A64" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>197</v>
+      <c r="A65" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>235</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>199</v>
+      <c r="A66" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>201</v>
+      <c r="A67" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
-      </c>
-      <c r="C72" s="44" t="s">
-        <v>164</v>
+        <v>247</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pnc_danger_sign_follow_up_mother.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_mother.xlsx
@@ -16,6 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="287">
   <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -25,6 +31,24 @@
     <t>label::en</t>
   </si>
   <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
     <t>label::hi</t>
   </si>
   <si>
@@ -118,139 +142,148 @@
     <t>cht::notes</t>
   </si>
   <si>
-    <t>form_title</t>
+    <t>PNC danger sign follow-up - mother</t>
   </si>
   <si>
     <t>begin group</t>
   </si>
   <si>
+    <t>pnc_danger_sign_follow_up_mother</t>
+  </si>
+  <si>
     <t>inputs</t>
   </si>
   <si>
     <t>Patient</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>PNC danger sign follow-up - mother</t>
-  </si>
-  <si>
-    <t>pnc_danger_sign_follow_up_mother</t>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t>pages</t>
   </si>
   <si>
-    <t>./source = 'user'</t>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>delivery_uuid</t>
+  </si>
+  <si>
+    <t>Delivery Report ID</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
-    <t>delivery_uuid</t>
-  </si>
-  <si>
-    <t>Delivery Report ID</t>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Parent</t>
   </si>
   <si>
     <t>yes_no</t>
   </si>
   <si>
+    <t>Parent ID</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>What is the patient's name?</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>db-object</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>short_name</t>
-  </si>
-  <si>
-    <t>Short Name</t>
-  </si>
-  <si>
     <t>translate_woman_label</t>
   </si>
   <si>
+    <t>chw_name</t>
+  </si>
+  <si>
+    <t>CHW name</t>
+  </si>
+  <si>
     <t>woman</t>
   </si>
   <si>
-    <t>patient_id</t>
-  </si>
-  <si>
     <t>the woman</t>
   </si>
   <si>
-    <t>Patient ID</t>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>CHW phone</t>
   </si>
   <si>
     <t>translate_woman_start_label</t>
@@ -262,39 +295,6 @@
     <t>The woman</t>
   </si>
   <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Parent ID</t>
-  </si>
-  <si>
-    <t>chw_name</t>
-  </si>
-  <si>
-    <t>CHW name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>CHW phone</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
@@ -325,12 +325,45 @@
     <t>../inputs/contact/name</t>
   </si>
   <si>
+    <t>lmp_approximations</t>
+  </si>
+  <si>
+    <t>upto_2_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 2 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
+  </si>
+  <si>
     <t>patient_short_name</t>
   </si>
   <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
     <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
   </si>
   <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
     <t>patient_short_name_start</t>
   </si>
   <si>
@@ -343,57 +376,24 @@
     <t>date-time(floor(decimal-date-time(today())) + 3)</t>
   </si>
   <si>
-    <t>lmp_approximations</t>
-  </si>
-  <si>
-    <t>upto_2_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 2 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_3_months_ago</t>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
   </si>
   <si>
     <t>t_danger_signs_referral_follow_up</t>
   </si>
   <si>
-    <t>Upto 3 Months Ago</t>
+    <t>take_iron_and_folic_acid</t>
   </si>
   <si>
     <t>../danger_signs/r_danger_sign_present</t>
   </si>
   <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
-  </si>
-  <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
-    <t>Between 5 And 6 Months Ago</t>
-  </si>
-  <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
-  </si>
-  <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
-  </si>
-  <si>
-    <t>take_iron_and_folic_acid</t>
-  </si>
-  <si>
     <t>Take iron and folic acid tablets</t>
   </si>
   <si>
@@ -409,24 +409,24 @@
     <t>Sleep under an insecticide treated bednet</t>
   </si>
   <si>
+    <t>go_for_anc_visit</t>
+  </si>
+  <si>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+  </si>
+  <si>
+    <t>develop_birth_plan</t>
+  </si>
+  <si>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+  </si>
+  <si>
     <t>danger_signs</t>
   </si>
   <si>
     <t>Danger Sign Follow-up - Mother</t>
   </si>
   <si>
-    <t>go_for_anc_visit</t>
-  </si>
-  <si>
-    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
-  </si>
-  <si>
-    <t>develop_birth_plan</t>
-  </si>
-  <si>
-    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
-  </si>
-  <si>
     <t>trimester2_choices</t>
   </si>
   <si>
@@ -445,18 +445,18 @@
     <t>Is she still experiencing any danger signs?</t>
   </si>
   <si>
+    <t>couselling_on_exclusive_breastfeeding</t>
+  </si>
+  <si>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
-    <t>couselling_on_exclusive_breastfeeding</t>
-  </si>
-  <si>
     <t>danger_signs_question_note</t>
   </si>
   <si>
-    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please indicate which danger signs ${patient_short_name} is experiencing. </t>
   </si>
   <si>
@@ -472,36 +472,36 @@
     <t>Heart condition</t>
   </si>
   <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
     <t>fever</t>
   </si>
   <si>
     <t>Fever</t>
   </si>
   <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
     <t>high_blood_pressure</t>
   </si>
   <si>
     <t>High blood pressure</t>
   </si>
   <si>
+    <t>known_diabetes</t>
+  </si>
+  <si>
+    <t>Known diabetes</t>
+  </si>
+  <si>
     <t>severe_headache</t>
   </si>
   <si>
     <t>Severe headache</t>
   </si>
   <si>
-    <t>known_diabetes</t>
-  </si>
-  <si>
-    <t>Known diabetes</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -514,28 +514,28 @@
     <t>Vaginal bleeding</t>
   </si>
   <si>
+    <t>hiv_statuses</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>vaginal_discharge</t>
   </si>
   <si>
-    <t>hiv_statuses</t>
-  </si>
-  <si>
-    <t>known</t>
-  </si>
-  <si>
     <t>Foul smelling vaginal discharge</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>fp_methods</t>
   </si>
   <si>
     <t>convulsion</t>
   </si>
   <si>
     <t>Convulsions</t>
-  </si>
-  <si>
-    <t>fp_methods</t>
   </si>
   <si>
     <t>r_danger_sign_present</t>
@@ -570,66 +570,66 @@
     <t>../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
   </si>
   <si>
+    <t>Combined oral contraceptives</t>
+  </si>
+  <si>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
     <t>refer_patient_note_2</t>
   </si>
   <si>
     <t xml:space="preserve">Please advise her to do so and accompany her if possible. </t>
   </si>
   <si>
+    <t>Injectibles</t>
+  </si>
+  <si>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>Implants (2 rods)</t>
+  </si>
+  <si>
     <t>custom_translations</t>
   </si>
   <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
-    <t>Progesterone only pills</t>
-  </si>
-  <si>
-    <t>Injectibles</t>
+    <t>IUD</t>
+  </si>
+  <si>
+    <t>Condoms</t>
+  </si>
+  <si>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
   </si>
   <si>
     <t>select_one translate_woman_label</t>
   </si>
   <si>
-    <t>Implants (1 rod)</t>
-  </si>
-  <si>
     <t>custom_woman_label_translator</t>
   </si>
   <si>
-    <t>Implants (2 rods)</t>
-  </si>
-  <si>
     <t>"woman"</t>
   </si>
   <si>
-    <t>IUD</t>
-  </si>
-  <si>
-    <t>Condoms</t>
+    <t>reasons_not_on_fp</t>
+  </si>
+  <si>
+    <t>Wants to get pregnant</t>
   </si>
   <si>
     <t>custom_woman_label</t>
   </si>
   <si>
-    <t>Tubal ligation</t>
-  </si>
-  <si>
-    <t>Cycle beads</t>
+    <t>Did not want FP</t>
   </si>
   <si>
     <t>jr:choice-name(${custom_woman_label_translator},'${custom_woman_label_translator}')</t>
   </si>
   <si>
-    <t>reasons_not_on_fp</t>
-  </si>
-  <si>
-    <t>Wants to get pregnant</t>
-  </si>
-  <si>
-    <t>Did not want FP</t>
-  </si>
-  <si>
     <t>follow_up_methods</t>
   </si>
   <si>
@@ -645,16 +645,19 @@
     <t>In person</t>
   </si>
   <si>
+    <t>"woman-start"</t>
+  </si>
+  <si>
+    <t>custom_woman_start_label</t>
+  </si>
+  <si>
     <t>by_phone</t>
   </si>
   <si>
     <t>By phone</t>
   </si>
   <si>
-    <t>"woman-start"</t>
-  </si>
-  <si>
-    <t>custom_woman_start_label</t>
+    <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
   </si>
   <si>
     <t>reasons_for_missing_visit</t>
@@ -666,9 +669,6 @@
     <t>She was not reminded</t>
   </si>
   <si>
-    <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
-  </si>
-  <si>
     <t>travelled</t>
   </si>
   <si>
@@ -852,37 +852,37 @@
     <t>__patient_uuid</t>
   </si>
   <si>
-    <t>../../inputs/contact/_id</t>
+    <t>../../../inputs/contact/_id</t>
   </si>
   <si>
     <t>__patient_id</t>
   </si>
   <si>
-    <t>../../inputs/contact/patient_id</t>
+    <t>../../../inputs/contact/patient_id</t>
   </si>
   <si>
     <t>__household_uuid</t>
   </si>
   <si>
-    <t>../../inputs/contact/parent/_id</t>
+    <t>../../../inputs/contact/parent/_id</t>
   </si>
   <si>
     <t>__source</t>
   </si>
   <si>
-    <t>../../inputs/source</t>
+    <t>../../../inputs/source</t>
   </si>
   <si>
     <t>__source_id</t>
   </si>
   <si>
-    <t>../../inputs/source_id</t>
+    <t>../../../inputs/source_id</t>
   </si>
   <si>
     <t>__delivery_uuid</t>
   </si>
   <si>
-    <t>../../inputs/delivery_uuid</t>
+    <t>../../../inputs/delivery_uuid</t>
   </si>
 </sst>
 </file>
@@ -900,6 +900,11 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
     </font>
     <font>
       <b/>
@@ -908,11 +913,6 @@
       <name val="Calibri"/>
     </font>
     <font/>
-    <font>
-      <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -953,6 +953,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
@@ -961,12 +967,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1025,14 +1025,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor rgb="FF8E7CC3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8E7CC3"/>
-        <bgColor rgb="FF8E7CC3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1046,105 +1046,105 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -1154,28 +1154,28 @@
     <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1242,120 +1242,120 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
+      <c r="AA1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1365,10 +1365,10 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -1396,14 +1396,14 @@
       <c r="AJ2" s="12"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1432,7 +1432,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
@@ -1442,14 +1442,14 @@
       <c r="AJ3" s="12"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1486,14 +1486,14 @@
       <c r="AJ4" s="12"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>59</v>
+      <c r="A5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1530,14 +1530,14 @@
       <c r="AJ5" s="12"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>63</v>
+      <c r="A6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1574,14 +1574,14 @@
       <c r="AJ6" s="12"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>66</v>
+      <c r="A7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1592,7 +1592,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1620,14 +1620,14 @@
       <c r="AJ7" s="12"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
+      <c r="A8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -1664,14 +1664,14 @@
       <c r="AJ8" s="12"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>73</v>
+      <c r="A9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1708,14 +1708,14 @@
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>76</v>
+      <c r="A10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1752,14 +1752,14 @@
       <c r="AJ10" s="12"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>82</v>
+      <c r="A11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1798,14 +1798,14 @@
       <c r="AJ11" s="12"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>84</v>
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1842,14 +1842,14 @@
       <c r="AJ12" s="12"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>86</v>
+      <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1886,14 +1886,14 @@
       <c r="AJ13" s="12"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>66</v>
+      <c r="A14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1925,19 +1925,19 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>86</v>
+      <c r="A15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1974,14 +1974,14 @@
       <c r="AJ15" s="12"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>63</v>
+      <c r="A16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -2018,14 +2018,14 @@
       <c r="AJ16" s="12"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>89</v>
+      <c r="A17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -2062,14 +2062,14 @@
       <c r="AJ17" s="12"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>91</v>
+      <c r="A18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -2106,11 +2106,11 @@
       <c r="AJ18" s="12"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>63</v>
+      <c r="B19" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2148,11 +2148,11 @@
       <c r="AJ19" s="12"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>86</v>
+      <c r="B20" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2190,11 +2190,11 @@
       <c r="AJ20" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>86</v>
+      <c r="B21" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2232,11 +2232,11 @@
       <c r="AJ21" s="12"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>63</v>
+      <c r="B22" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2274,11 +2274,11 @@
       <c r="AJ22" s="12"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>36</v>
+      <c r="B23" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2362,7 +2362,7 @@
       <c r="AD25" s="33"/>
       <c r="AE25" s="33"/>
       <c r="AF25" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG25" s="33"/>
       <c r="AH25" s="35"/>
@@ -2410,7 +2410,7 @@
       <c r="AD26" s="33"/>
       <c r="AE26" s="33"/>
       <c r="AF26" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG26" s="33"/>
       <c r="AH26" s="35"/>
@@ -2422,7 +2422,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>96</v>
@@ -2434,7 +2434,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="33" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
@@ -2460,7 +2460,7 @@
       <c r="AD27" s="33"/>
       <c r="AE27" s="33"/>
       <c r="AF27" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG27" s="33"/>
       <c r="AH27" s="35"/>
@@ -2508,7 +2508,7 @@
       <c r="AD28" s="33"/>
       <c r="AE28" s="33"/>
       <c r="AF28" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG28" s="33"/>
       <c r="AH28" s="35"/>
@@ -2520,7 +2520,7 @@
         <v>94</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>96</v>
@@ -2543,7 +2543,7 @@
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
       <c r="U29" s="34" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="V29" s="33"/>
       <c r="W29" s="33"/>
@@ -2556,7 +2556,7 @@
       <c r="AD29" s="33"/>
       <c r="AE29" s="33"/>
       <c r="AF29" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG29" s="33"/>
       <c r="AH29" s="35"/>
@@ -2568,7 +2568,7 @@
         <v>94</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>96</v>
@@ -2591,7 +2591,7 @@
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
       <c r="U30" s="34" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V30" s="33"/>
       <c r="W30" s="33"/>
@@ -2604,7 +2604,7 @@
       <c r="AD30" s="33"/>
       <c r="AE30" s="33"/>
       <c r="AF30" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG30" s="33"/>
       <c r="AH30" s="35"/>
@@ -2616,7 +2616,7 @@
         <v>94</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>96</v>
@@ -2639,7 +2639,7 @@
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="34" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="V31" s="33"/>
       <c r="W31" s="33"/>
@@ -2652,7 +2652,7 @@
       <c r="AD31" s="33"/>
       <c r="AE31" s="33"/>
       <c r="AF31" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG31" s="33"/>
       <c r="AH31" s="37"/>
@@ -2664,7 +2664,7 @@
         <v>94</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>96</v>
@@ -2687,7 +2687,7 @@
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="34" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="V32" s="33"/>
       <c r="W32" s="33"/>
@@ -2700,7 +2700,7 @@
       <c r="AD32" s="33"/>
       <c r="AE32" s="33"/>
       <c r="AF32" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG32" s="33"/>
       <c r="AH32" s="37"/>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="39" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
@@ -2736,7 +2736,7 @@
       <c r="J34" s="41"/>
       <c r="K34" s="40"/>
       <c r="L34" s="40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
@@ -2780,7 +2780,7 @@
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35" s="41" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K35" s="41"/>
       <c r="L35" s="41"/>
@@ -2826,7 +2826,7 @@
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
       <c r="J36" s="41" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="41"/>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>147</v>
@@ -2896,7 +2896,7 @@
       <c r="AD37" s="41"/>
       <c r="AE37" s="41"/>
       <c r="AF37" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG37" s="41"/>
       <c r="AH37" s="42"/>
@@ -2908,10 +2908,10 @@
         <v>138</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
@@ -2920,7 +2920,7 @@
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K38" s="40" t="s">
         <v>148</v>
@@ -2956,10 +2956,10 @@
         <v>138</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
@@ -2968,7 +2968,7 @@
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
       <c r="J39" s="41" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K39" s="40" t="s">
         <v>148</v>
@@ -3016,7 +3016,7 @@
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K40" s="40" t="s">
         <v>148</v>
@@ -3052,10 +3052,10 @@
         <v>138</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
@@ -3064,7 +3064,7 @@
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
       <c r="J41" s="41" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K41" s="40" t="s">
         <v>148</v>
@@ -3100,10 +3100,10 @@
         <v>138</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
@@ -3112,7 +3112,7 @@
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
       <c r="J42" s="41" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K42" s="40" t="s">
         <v>148</v>
@@ -3184,7 +3184,7 @@
       <c r="AD43" s="41"/>
       <c r="AE43" s="41"/>
       <c r="AF43" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG43" s="41"/>
       <c r="AH43" s="42"/>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B44" s="39" t="s">
         <v>176</v>
@@ -3232,7 +3232,7 @@
       <c r="AD44" s="41"/>
       <c r="AE44" s="41"/>
       <c r="AF44" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG44" s="41"/>
       <c r="AH44" s="44"/>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B45" s="39" t="s">
         <v>179</v>
@@ -3280,7 +3280,7 @@
       <c r="AD45" s="41"/>
       <c r="AE45" s="41"/>
       <c r="AF45" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG45" s="41"/>
       <c r="AH45" s="44"/>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
@@ -3328,7 +3328,7 @@
       <c r="AD46" s="41"/>
       <c r="AE46" s="41"/>
       <c r="AF46" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG46" s="41"/>
       <c r="AH46" s="42"/>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="39" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>96</v>
@@ -3354,7 +3354,7 @@
       <c r="J47" s="41"/>
       <c r="K47" s="41"/>
       <c r="L47" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M47" s="41"/>
       <c r="N47" s="41"/>
@@ -3376,7 +3376,7 @@
       <c r="AD47" s="41"/>
       <c r="AE47" s="41"/>
       <c r="AF47" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG47" s="41"/>
       <c r="AH47" s="45"/>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="39" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>96</v>
@@ -3411,7 +3411,7 @@
       <c r="S48" s="41"/>
       <c r="T48" s="41"/>
       <c r="U48" s="40" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="V48" s="41"/>
       <c r="W48" s="41"/>
@@ -3434,7 +3434,7 @@
         <v>94</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C49" s="41" t="s">
         <v>96</v>
@@ -3457,7 +3457,7 @@
       <c r="S49" s="41"/>
       <c r="T49" s="41"/>
       <c r="U49" s="40" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="V49" s="41"/>
       <c r="W49" s="41"/>
@@ -3503,7 +3503,7 @@
       <c r="S50" s="41"/>
       <c r="T50" s="41"/>
       <c r="U50" s="40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V50" s="41"/>
       <c r="W50" s="41"/>
@@ -3526,7 +3526,7 @@
         <v>94</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>96</v>
@@ -3549,7 +3549,7 @@
       <c r="S51" s="41"/>
       <c r="T51" s="41"/>
       <c r="U51" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V51" s="41"/>
       <c r="W51" s="41"/>
@@ -3655,16 +3655,16 @@
       <c r="F54" s="30"/>
       <c r="AF54" s="30"/>
       <c r="AG54" s="30"/>
-      <c r="AH54" s="48"/>
-      <c r="AI54" s="48"/>
-      <c r="AJ54" s="48"/>
+      <c r="AH54" s="47"/>
+      <c r="AI54" s="47"/>
+      <c r="AJ54" s="47"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>49</v>
+      <c r="A55" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="C55" s="50" t="s">
         <v>96</v>
@@ -3678,7 +3678,7 @@
       <c r="J55" s="51"/>
       <c r="K55" s="51"/>
       <c r="L55" s="52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M55" s="51"/>
       <c r="N55" s="51"/>
@@ -3700,7 +3700,7 @@
       <c r="AD55" s="51"/>
       <c r="AE55" s="51"/>
       <c r="AF55" s="52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG55" s="50"/>
       <c r="AH55" s="53"/>
@@ -3708,7 +3708,7 @@
       <c r="AJ55" s="53"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B56" s="54" t="s">
@@ -3754,7 +3754,7 @@
       <c r="AJ56" s="53"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B57" s="54" t="s">
@@ -3800,7 +3800,7 @@
       <c r="AJ57" s="53"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B58" s="54" t="s">
@@ -3846,7 +3846,7 @@
       <c r="AJ58" s="53"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B59" s="54" t="s">
@@ -3892,7 +3892,7 @@
       <c r="AJ59" s="53"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B60" s="54" t="s">
@@ -3938,7 +3938,7 @@
       <c r="AJ60" s="53"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B61" s="54" t="s">
@@ -3984,7 +3984,7 @@
       <c r="AJ61" s="53"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="54" t="s">
@@ -4030,7 +4030,7 @@
       <c r="AJ62" s="53"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="54" t="s">
@@ -4077,7 +4077,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="56" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B64" s="56" t="s">
         <v>274</v>
@@ -4120,7 +4120,7 @@
       <c r="AJ64" s="53"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B65" s="54" t="s">
@@ -4144,7 +4144,7 @@
       <c r="R65" s="51"/>
       <c r="S65" s="51"/>
       <c r="T65" s="51"/>
-      <c r="U65" s="50" t="s">
+      <c r="U65" s="53" t="s">
         <v>276</v>
       </c>
       <c r="V65" s="51"/>
@@ -4164,7 +4164,7 @@
       <c r="AJ65" s="53"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B66" s="54" t="s">
@@ -4188,7 +4188,7 @@
       <c r="R66" s="51"/>
       <c r="S66" s="51"/>
       <c r="T66" s="51"/>
-      <c r="U66" s="50" t="s">
+      <c r="U66" s="53" t="s">
         <v>278</v>
       </c>
       <c r="V66" s="51"/>
@@ -4208,7 +4208,7 @@
       <c r="AJ66" s="53"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="49" t="s">
+      <c r="A67" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B67" s="54" t="s">
@@ -4232,7 +4232,7 @@
       <c r="R67" s="51"/>
       <c r="S67" s="51"/>
       <c r="T67" s="51"/>
-      <c r="U67" s="50" t="s">
+      <c r="U67" s="53" t="s">
         <v>280</v>
       </c>
       <c r="V67" s="51"/>
@@ -4252,7 +4252,7 @@
       <c r="AJ67" s="53"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B68" s="54" t="s">
@@ -4276,7 +4276,7 @@
       <c r="R68" s="51"/>
       <c r="S68" s="51"/>
       <c r="T68" s="51"/>
-      <c r="U68" s="50" t="s">
+      <c r="U68" s="53" t="s">
         <v>282</v>
       </c>
       <c r="V68" s="51"/>
@@ -4296,7 +4296,7 @@
       <c r="AJ68" s="53"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B69" s="54" t="s">
@@ -4320,7 +4320,7 @@
       <c r="R69" s="51"/>
       <c r="S69" s="51"/>
       <c r="T69" s="51"/>
-      <c r="U69" s="50" t="s">
+      <c r="U69" s="53" t="s">
         <v>284</v>
       </c>
       <c r="V69" s="51"/>
@@ -4340,7 +4340,7 @@
       <c r="AJ69" s="53"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B70" s="54" t="s">
@@ -4364,7 +4364,7 @@
       <c r="R70" s="51"/>
       <c r="S70" s="51"/>
       <c r="T70" s="51"/>
-      <c r="U70" s="50" t="s">
+      <c r="U70" s="52" t="s">
         <v>286</v>
       </c>
       <c r="V70" s="51"/>
@@ -4430,7 +4430,7 @@
         <v>93</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C72" s="53"/>
       <c r="D72" s="57"/>
@@ -4495,56 +4495,56 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -4568,13 +4568,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4597,9 +4597,9 @@
       <c r="V3" s="25"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -4621,25 +4621,25 @@
       <c r="V4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>77</v>
+      <c r="A5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>81</v>
+      <c r="A6" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -4850,87 +4850,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="8">
+        <v>44</v>
+      </c>
+      <c r="C2" s="11">
         <f>NOW()</f>
-        <v>43747.52795</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="10" t="s">
+        <v>43748.59599</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4955,57 +4955,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -5030,13 +5030,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5086,13 +5086,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -5117,13 +5117,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -5148,13 +5148,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>117</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -5179,13 +5179,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5210,13 +5210,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -5266,13 +5266,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -5297,10 +5297,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>126</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>127</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>129</v>
@@ -5390,13 +5390,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -5421,13 +5421,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -5480,10 +5480,10 @@
         <v>137</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -5511,7 +5511,7 @@
         <v>137</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>126</v>
@@ -5604,10 +5604,10 @@
         <v>137</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -5635,10 +5635,10 @@
         <v>137</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>144</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>146</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -5722,10 +5722,10 @@
         <v>149</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -5784,10 +5784,10 @@
         <v>149</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -5868,13 +5868,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>168</v>
-      </c>
       <c r="C31" s="25" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -5899,13 +5899,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -5955,115 +5955,115 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B43" t="s">
         <v>162</v>
@@ -6080,26 +6080,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6109,82 +6109,82 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
+      <c r="B49" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
         <v>215</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
         <v>217</v>
@@ -6206,7 +6206,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
         <v>219</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s">
         <v>221</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
         <v>162</v>
@@ -6239,102 +6239,102 @@
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="27" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="27" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="27" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6369,8 +6369,8 @@
       <c r="B72" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="47" t="s">
-        <v>200</v>
+      <c r="C72" s="49" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">

--- a/config/default/forms/app/pnc_danger_sign_follow_up_mother.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_mother.xlsx
@@ -19,36 +19,39 @@
     <t>form_title</t>
   </si>
   <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>label::en</t>
   </si>
   <si>
+    <t>PNC danger sign follow-up - mother</t>
+  </si>
+  <si>
     <t>label::hi</t>
   </si>
   <si>
@@ -139,66 +142,96 @@
     <t>repeat_count</t>
   </si>
   <si>
-    <t>PNC danger sign follow-up - mother</t>
-  </si>
-  <si>
     <t>cht::notes</t>
   </si>
   <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
     <t>pnc_danger_sign_follow_up_mother</t>
   </si>
   <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>inputs</t>
-  </si>
-  <si>
-    <t>NO_LABEL</t>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>pages</t>
   </si>
   <si>
+    <t>delivery_uuid</t>
+  </si>
+  <si>
+    <t>Delivery Report ID</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>./source = 'user'</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
-    <t>delivery_uuid</t>
-  </si>
-  <si>
-    <t>Delivery Report ID</t>
+    <t>translate_woman_label</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>the woman</t>
   </si>
   <si>
     <t>contact</t>
   </si>
   <si>
+    <t>translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>woman-start</t>
+  </si>
+  <si>
+    <t>The woman</t>
+  </si>
+  <si>
     <t>db:person</t>
   </si>
   <si>
@@ -241,24 +274,9 @@
     <t>parent</t>
   </si>
   <si>
-    <t>yes_no</t>
-  </si>
-  <si>
     <t>Parent ID</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>chw_name</t>
   </si>
   <si>
@@ -271,84 +289,66 @@
     <t>CHW phone</t>
   </si>
   <si>
-    <t>translate_woman_label</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>the woman</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
-    <t>translate_woman_start_label</t>
-  </si>
-  <si>
-    <t>woman-start</t>
-  </si>
-  <si>
-    <t>The woman</t>
+    <t>lmp_approximations</t>
+  </si>
+  <si>
+    <t>upto_2_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 2 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
   </si>
   <si>
     <t>calculate</t>
   </si>
   <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
     <t>patient_age_in_years</t>
   </si>
   <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
     <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
   </si>
   <si>
-    <t>lmp_approximations</t>
-  </si>
-  <si>
-    <t>upto_2_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 2 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_3_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 3 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
   </si>
   <si>
     <t>patient_uuid</t>
   </si>
   <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
-    <t>Between 5 And 6 Months Ago</t>
-  </si>
-  <si>
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
-  </si>
-  <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
-  </si>
-  <si>
     <t>take_iron_and_folic_acid</t>
   </si>
   <si>
@@ -361,22 +361,37 @@
     <t>Avoid heavy work, rest more</t>
   </si>
   <si>
+    <t>../inputs/contact/patient_id</t>
+  </si>
+  <si>
     <t>sleep_under_bednet</t>
   </si>
   <si>
-    <t>../inputs/contact/patient_id</t>
+    <t>patient_name</t>
   </si>
   <si>
     <t>Sleep under an insecticide treated bednet</t>
   </si>
   <si>
+    <t>../inputs/contact/name</t>
+  </si>
+  <si>
+    <t>patient_short_name</t>
+  </si>
+  <si>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
+  </si>
+  <si>
     <t>go_for_anc_visit</t>
   </si>
   <si>
     <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
   </si>
   <si>
-    <t>patient_name</t>
+    <t>patient_short_name_start</t>
+  </si>
+  <si>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
   </si>
   <si>
     <t>develop_birth_plan</t>
@@ -385,12 +400,21 @@
     <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
-    <t>../inputs/contact/name</t>
+    <t>t_danger_signs_referral_follow_up_date</t>
+  </si>
+  <si>
+    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
+  </si>
+  <si>
+    <t>t_danger_signs_referral_follow_up</t>
   </si>
   <si>
     <t>trimester2_choices</t>
   </si>
   <si>
+    <t>../danger_signs/r_danger_sign_present</t>
+  </si>
+  <si>
     <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
@@ -400,31 +424,37 @@
     <t>conditions</t>
   </si>
   <si>
+    <t>danger_signs</t>
+  </si>
+  <si>
     <t>heart_condition</t>
   </si>
   <si>
+    <t>Danger Sign Follow-up - Mother</t>
+  </si>
+  <si>
     <t>Heart condition</t>
   </si>
   <si>
-    <t>patient_short_name</t>
-  </si>
-  <si>
     <t>asthma</t>
   </si>
   <si>
     <t>Asthma</t>
   </si>
   <si>
-    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
-  </si>
-  <si>
     <t>high_blood_pressure</t>
   </si>
   <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
     <t>High blood pressure</t>
   </si>
   <si>
-    <t>patient_short_name_start</t>
+    <t>visit_confirm</t>
+  </si>
+  <si>
+    <t>Did ${patient_short_name} visit the health facility as recommended?</t>
   </si>
   <si>
     <t>known_diabetes</t>
@@ -433,7 +463,10 @@
     <t>Known diabetes</t>
   </si>
   <si>
-    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
+    <t>danger_sign_present</t>
+  </si>
+  <si>
+    <t>Is she still experiencing any danger signs?</t>
   </si>
   <si>
     <t>other</t>
@@ -442,52 +475,55 @@
     <t>Other</t>
   </si>
   <si>
-    <t>t_danger_signs_referral_follow_up_date</t>
-  </si>
-  <si>
     <t>hiv_statuses</t>
   </si>
   <si>
-    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
-  </si>
-  <si>
     <t>known</t>
   </si>
   <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>danger_signs_question_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please indicate which danger signs ${patient_short_name} is experiencing. </t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
+  </si>
+  <si>
     <t>fp_methods</t>
   </si>
   <si>
-    <t>t_danger_signs_referral_follow_up</t>
-  </si>
-  <si>
-    <t>../danger_signs/r_danger_sign_present</t>
-  </si>
-  <si>
-    <t>danger_signs</t>
-  </si>
-  <si>
-    <t>Danger Sign Follow-up - Mother</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>visit_confirm</t>
-  </si>
-  <si>
-    <t>Did ${patient_short_name} visit the health facility as recommended?</t>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>severe_headache</t>
+  </si>
+  <si>
+    <t>Severe headache</t>
+  </si>
+  <si>
+    <t>vaginal_bleeding</t>
+  </si>
+  <si>
+    <t>Vaginal bleeding</t>
   </si>
   <si>
     <t>Combined oral contraceptives</t>
   </si>
   <si>
-    <t>danger_sign_present</t>
-  </si>
-  <si>
-    <t>Is she still experiencing any danger signs?</t>
+    <t>vaginal_discharge</t>
+  </si>
+  <si>
+    <t>Foul smelling vaginal discharge</t>
   </si>
   <si>
     <t>Progesterone only pills</t>
@@ -499,6 +535,12 @@
     <t>Implants (1 rod)</t>
   </si>
   <si>
+    <t>convulsion</t>
+  </si>
+  <si>
+    <t>Convulsions</t>
+  </si>
+  <si>
     <t>Implants (2 rods)</t>
   </si>
   <si>
@@ -508,148 +550,13 @@
     <t>Condoms</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>danger_signs_question_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate which danger signs ${patient_short_name} is experiencing. </t>
+    <t>r_danger_sign_present</t>
   </si>
   <si>
     <t>Tubal ligation</t>
   </si>
   <si>
-    <t>../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
-  </si>
-  <si>
     <t>Cycle beads</t>
-  </si>
-  <si>
-    <t>fever</t>
-  </si>
-  <si>
-    <t>Fever</t>
-  </si>
-  <si>
-    <t>reasons_not_on_fp</t>
-  </si>
-  <si>
-    <t>Wants to get pregnant</t>
-  </si>
-  <si>
-    <t>severe_headache</t>
-  </si>
-  <si>
-    <t>Severe headache</t>
-  </si>
-  <si>
-    <t>Did not want FP</t>
-  </si>
-  <si>
-    <t>follow_up_methods</t>
-  </si>
-  <si>
-    <t>in_person</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>vaginal_bleeding</t>
-  </si>
-  <si>
-    <t>Vaginal bleeding</t>
-  </si>
-  <si>
-    <t>by_phone</t>
-  </si>
-  <si>
-    <t>By phone</t>
-  </si>
-  <si>
-    <t>reasons_for_missing_visit</t>
-  </si>
-  <si>
-    <t>not_reminded</t>
-  </si>
-  <si>
-    <t>She was not reminded</t>
-  </si>
-  <si>
-    <t>vaginal_discharge</t>
-  </si>
-  <si>
-    <t>Foul smelling vaginal discharge</t>
-  </si>
-  <si>
-    <t>travelled</t>
-  </si>
-  <si>
-    <t>She had travelled</t>
-  </si>
-  <si>
-    <t>no_lab_results</t>
-  </si>
-  <si>
-    <t>No Lab results yet</t>
-  </si>
-  <si>
-    <t>too_early</t>
-  </si>
-  <si>
-    <t>It is too early to start clinic</t>
-  </si>
-  <si>
-    <t>relocated</t>
-  </si>
-  <si>
-    <t>Relocated</t>
-  </si>
-  <si>
-    <t>convulsion</t>
-  </si>
-  <si>
-    <t>Convulsions</t>
-  </si>
-  <si>
-    <t>actions_taken</t>
-  </si>
-  <si>
-    <t>referred</t>
-  </si>
-  <si>
-    <t>Referred the mother</t>
-  </si>
-  <si>
-    <t>key_message</t>
-  </si>
-  <si>
-    <t>Provided key health message</t>
-  </si>
-  <si>
-    <t>accompany</t>
-  </si>
-  <si>
-    <t>Accompany the mother to facility</t>
-  </si>
-  <si>
-    <t>r_danger_sign_present</t>
-  </si>
-  <si>
-    <t>recent_foods</t>
-  </si>
-  <si>
-    <t>carbohydrates</t>
-  </si>
-  <si>
-    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>Body building foods: Milk, eggs, meat</t>
   </si>
   <si>
     <t>if(selected(../fever, 'yes') or
@@ -663,6 +570,156 @@
 selected(../convulsion, 'no'), 'no', ''))</t>
   </si>
   <si>
+    <t>congratulate_no_ds_note</t>
+  </si>
+  <si>
+    <t>Great news! Please continue to closely monitor her.</t>
+  </si>
+  <si>
+    <t>../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
+  </si>
+  <si>
+    <t>refer_patient_note_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${patient_short_name_start} should visit the health facility immediately if she is experiencing any of these danger signs. </t>
+  </si>
+  <si>
+    <t>reasons_not_on_fp</t>
+  </si>
+  <si>
+    <t>../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
+  </si>
+  <si>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
+    <t>refer_patient_note_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please advise her to do so and accompany her if possible. </t>
+  </si>
+  <si>
+    <t>Did not want FP</t>
+  </si>
+  <si>
+    <t>custom_translations</t>
+  </si>
+  <si>
+    <t>follow_up_methods</t>
+  </si>
+  <si>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
+    <t>by_phone</t>
+  </si>
+  <si>
+    <t>By phone</t>
+  </si>
+  <si>
+    <t>select_one translate_woman_label</t>
+  </si>
+  <si>
+    <t>custom_woman_label_translator</t>
+  </si>
+  <si>
+    <t>reasons_for_missing_visit</t>
+  </si>
+  <si>
+    <t>not_reminded</t>
+  </si>
+  <si>
+    <t>She was not reminded</t>
+  </si>
+  <si>
+    <t>"woman"</t>
+  </si>
+  <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>She had travelled</t>
+  </si>
+  <si>
+    <t>custom_woman_label</t>
+  </si>
+  <si>
+    <t>no_lab_results</t>
+  </si>
+  <si>
+    <t>No Lab results yet</t>
+  </si>
+  <si>
+    <t>too_early</t>
+  </si>
+  <si>
+    <t>It is too early to start clinic</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${custom_woman_label_translator},'${custom_woman_label_translator}')</t>
+  </si>
+  <si>
+    <t>relocated</t>
+  </si>
+  <si>
+    <t>Relocated</t>
+  </si>
+  <si>
+    <t>select_one translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>custom_woman_start_label_translator</t>
+  </si>
+  <si>
+    <t>"woman-start"</t>
+  </si>
+  <si>
+    <t>actions_taken</t>
+  </si>
+  <si>
+    <t>referred</t>
+  </si>
+  <si>
+    <t>Referred the mother</t>
+  </si>
+  <si>
+    <t>custom_woman_start_label</t>
+  </si>
+  <si>
+    <t>key_message</t>
+  </si>
+  <si>
+    <t>Provided key health message</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
+  </si>
+  <si>
+    <t>Accompany the mother to facility</t>
+  </si>
+  <si>
+    <t>recent_foods</t>
+  </si>
+  <si>
+    <t>carbohydrates</t>
+  </si>
+  <si>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>Body building foods: Milk, eggs, meat</t>
+  </si>
+  <si>
     <t>vegetables</t>
   </si>
   <si>
@@ -675,12 +732,6 @@
     <t>Fruits: Mangoes, ripe bananas, oranges</t>
   </si>
   <si>
-    <t>congratulate_no_ds_note</t>
-  </si>
-  <si>
-    <t>Great news! Please continue to closely monitor her.</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -693,9 +744,6 @@
     <t>positive</t>
   </si>
   <si>
-    <t>../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
-  </si>
-  <si>
     <t>Positive</t>
   </si>
   <si>
@@ -711,58 +759,10 @@
     <t>wants_to_get_pregnant</t>
   </si>
   <si>
-    <t>refer_patient_note_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${patient_short_name_start} should visit the health facility immediately if she is experiencing any of these danger signs. </t>
-  </si>
-  <si>
-    <t>../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
-  </si>
-  <si>
-    <t>refer_patient_note_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please advise her to do so and accompany her if possible. </t>
-  </si>
-  <si>
-    <t>custom_translations</t>
-  </si>
-  <si>
     <t>feels_sick_when_using_it</t>
   </si>
   <si>
     <t>Feels sick when using it</t>
-  </si>
-  <si>
-    <t>select_one translate_woman_label</t>
-  </si>
-  <si>
-    <t>custom_woman_label_translator</t>
-  </si>
-  <si>
-    <t>"woman"</t>
-  </si>
-  <si>
-    <t>custom_woman_label</t>
-  </si>
-  <si>
-    <t>jr:choice-name(${custom_woman_label_translator},'${custom_woman_label_translator}')</t>
-  </si>
-  <si>
-    <t>select_one translate_woman_start_label</t>
-  </si>
-  <si>
-    <t>custom_woman_start_label_translator</t>
-  </si>
-  <si>
-    <t>"woman-start"</t>
-  </si>
-  <si>
-    <t>custom_woman_start_label</t>
-  </si>
-  <si>
-    <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
   </si>
   <si>
     <t>__visited_hf</t>
@@ -896,15 +896,16 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+    </font>
     <font/>
     <font>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -912,14 +913,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -944,18 +944,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
@@ -974,8 +962,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1040,59 +1040,48 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -1100,14 +1089,22 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1115,14 +1112,17 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1139,11 +1139,8 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1153,6 +1150,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1236,1078 +1236,1078 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
+      <c r="A5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="AF24" s="31"/>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -2343,7 +2343,7 @@
       <c r="S25" s="34"/>
       <c r="T25" s="34"/>
       <c r="U25" s="34" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="V25" s="34"/>
       <c r="W25" s="34"/>
@@ -2356,7 +2356,7 @@
       <c r="AD25" s="34"/>
       <c r="AE25" s="34"/>
       <c r="AF25" s="35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG25" s="34"/>
       <c r="AH25" s="36"/>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
@@ -2391,7 +2391,7 @@
       <c r="S26" s="34"/>
       <c r="T26" s="34"/>
       <c r="U26" s="34" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
@@ -2404,7 +2404,7 @@
       <c r="AD26" s="34"/>
       <c r="AE26" s="34"/>
       <c r="AF26" s="35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG26" s="34"/>
       <c r="AH26" s="36"/>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -2428,7 +2428,7 @@
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
       <c r="J27" s="34" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
@@ -2441,7 +2441,7 @@
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
       <c r="U27" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V27" s="34"/>
       <c r="W27" s="34"/>
@@ -2454,7 +2454,7 @@
       <c r="AD27" s="34"/>
       <c r="AE27" s="34"/>
       <c r="AF27" s="35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG27" s="34"/>
       <c r="AH27" s="36"/>
@@ -2463,13 +2463,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -2489,7 +2489,7 @@
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
       <c r="U28" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="V28" s="34"/>
       <c r="W28" s="34"/>
@@ -2502,7 +2502,7 @@
       <c r="AD28" s="34"/>
       <c r="AE28" s="34"/>
       <c r="AF28" s="35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG28" s="34"/>
       <c r="AH28" s="36"/>
@@ -2511,13 +2511,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="37" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -2537,7 +2537,7 @@
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
       <c r="U29" s="35" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
@@ -2550,7 +2550,7 @@
       <c r="AD29" s="34"/>
       <c r="AE29" s="34"/>
       <c r="AF29" s="35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG29" s="34"/>
       <c r="AH29" s="36"/>
@@ -2559,13 +2559,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
@@ -2585,7 +2585,7 @@
       <c r="S30" s="34"/>
       <c r="T30" s="34"/>
       <c r="U30" s="35" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="V30" s="34"/>
       <c r="W30" s="34"/>
@@ -2598,7 +2598,7 @@
       <c r="AD30" s="34"/>
       <c r="AE30" s="34"/>
       <c r="AF30" s="35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG30" s="34"/>
       <c r="AH30" s="36"/>
@@ -2607,13 +2607,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -2633,7 +2633,7 @@
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
       <c r="U31" s="35" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="V31" s="34"/>
       <c r="W31" s="34"/>
@@ -2646,7 +2646,7 @@
       <c r="AD31" s="34"/>
       <c r="AE31" s="34"/>
       <c r="AF31" s="35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG31" s="34"/>
       <c r="AH31" s="38"/>
@@ -2655,13 +2655,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -2681,7 +2681,7 @@
       <c r="S32" s="34"/>
       <c r="T32" s="34"/>
       <c r="U32" s="35" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
@@ -2694,7 +2694,7 @@
       <c r="AD32" s="34"/>
       <c r="AE32" s="34"/>
       <c r="AF32" s="35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG32" s="34"/>
       <c r="AH32" s="38"/>
@@ -2713,13 +2713,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
@@ -2730,7 +2730,7 @@
       <c r="J34" s="42"/>
       <c r="K34" s="41"/>
       <c r="L34" s="41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M34" s="42"/>
       <c r="N34" s="42"/>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="44" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -2774,7 +2774,7 @@
       <c r="H35" s="42"/>
       <c r="I35" s="42"/>
       <c r="J35" s="42" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
@@ -2805,13 +2805,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="44" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
@@ -2820,7 +2820,7 @@
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="42" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K36" s="42"/>
       <c r="L36" s="42"/>
@@ -2851,13 +2851,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="44" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
@@ -2867,7 +2867,7 @@
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
       <c r="K37" s="41" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L37" s="42"/>
       <c r="M37" s="42"/>
@@ -2890,7 +2890,7 @@
       <c r="AD37" s="42"/>
       <c r="AE37" s="42"/>
       <c r="AF37" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG37" s="42"/>
       <c r="AH37" s="43"/>
@@ -2899,13 +2899,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="44" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
@@ -2914,10 +2914,10 @@
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="42" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L38" s="42"/>
       <c r="M38" s="42"/>
@@ -2947,13 +2947,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="44" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
@@ -2962,10 +2962,10 @@
       <c r="H39" s="42"/>
       <c r="I39" s="42"/>
       <c r="J39" s="42" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L39" s="42"/>
       <c r="M39" s="42"/>
@@ -2995,13 +2995,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="44" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
@@ -3010,10 +3010,10 @@
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="42" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K40" s="41" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L40" s="42"/>
       <c r="M40" s="42"/>
@@ -3043,13 +3043,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="44" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
@@ -3058,10 +3058,10 @@
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K41" s="41" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L41" s="42"/>
       <c r="M41" s="42"/>
@@ -3091,13 +3091,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="44" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
@@ -3106,10 +3106,10 @@
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K42" s="41" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L42" s="42"/>
       <c r="M42" s="42"/>
@@ -3139,13 +3139,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="44" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
@@ -3165,7 +3165,7 @@
       <c r="S43" s="42"/>
       <c r="T43" s="42"/>
       <c r="U43" s="41" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="V43" s="42"/>
       <c r="W43" s="42"/>
@@ -3178,7 +3178,7 @@
       <c r="AD43" s="42"/>
       <c r="AE43" s="42"/>
       <c r="AF43" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG43" s="42"/>
       <c r="AH43" s="43"/>
@@ -3187,13 +3187,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="40" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
@@ -3203,7 +3203,7 @@
       <c r="I44" s="42"/>
       <c r="J44" s="42"/>
       <c r="K44" s="41" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="L44" s="42"/>
       <c r="M44" s="42"/>
@@ -3226,7 +3226,7 @@
       <c r="AD44" s="42"/>
       <c r="AE44" s="42"/>
       <c r="AF44" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG44" s="42"/>
       <c r="AH44" s="45"/>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="44" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
@@ -3251,7 +3251,7 @@
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>
       <c r="K45" s="41" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="L45" s="42"/>
       <c r="M45" s="42"/>
@@ -3274,7 +3274,7 @@
       <c r="AD45" s="42"/>
       <c r="AE45" s="42"/>
       <c r="AF45" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG45" s="42"/>
       <c r="AH45" s="45"/>
@@ -3283,13 +3283,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="44" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
@@ -3299,7 +3299,7 @@
       <c r="I46" s="42"/>
       <c r="J46" s="42"/>
       <c r="K46" s="41" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="L46" s="42"/>
       <c r="M46" s="42"/>
@@ -3322,7 +3322,7 @@
       <c r="AD46" s="42"/>
       <c r="AE46" s="42"/>
       <c r="AF46" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG46" s="42"/>
       <c r="AH46" s="43"/>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
@@ -3348,7 +3348,7 @@
       <c r="J47" s="42"/>
       <c r="K47" s="42"/>
       <c r="L47" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M47" s="42"/>
       <c r="N47" s="42"/>
@@ -3370,22 +3370,22 @@
       <c r="AD47" s="42"/>
       <c r="AE47" s="42"/>
       <c r="AF47" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG47" s="42"/>
-      <c r="AH47" s="47"/>
-      <c r="AI47" s="47"/>
-      <c r="AJ47" s="47"/>
+      <c r="AH47" s="46"/>
+      <c r="AI47" s="46"/>
+      <c r="AJ47" s="46"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="40" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="42"/>
       <c r="E48" s="42"/>
@@ -3405,7 +3405,7 @@
       <c r="S48" s="42"/>
       <c r="T48" s="42"/>
       <c r="U48" s="41" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="V48" s="42"/>
       <c r="W48" s="42"/>
@@ -3419,19 +3419,19 @@
       <c r="AE48" s="42"/>
       <c r="AF48" s="42"/>
       <c r="AG48" s="42"/>
-      <c r="AH48" s="47"/>
-      <c r="AI48" s="47"/>
-      <c r="AJ48" s="47"/>
+      <c r="AH48" s="46"/>
+      <c r="AI48" s="46"/>
+      <c r="AJ48" s="46"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="40" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="42"/>
       <c r="E49" s="42"/>
@@ -3451,7 +3451,7 @@
       <c r="S49" s="42"/>
       <c r="T49" s="42"/>
       <c r="U49" s="41" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="V49" s="42"/>
       <c r="W49" s="42"/>
@@ -3465,19 +3465,19 @@
       <c r="AE49" s="42"/>
       <c r="AF49" s="42"/>
       <c r="AG49" s="42"/>
-      <c r="AH49" s="47"/>
-      <c r="AI49" s="47"/>
-      <c r="AJ49" s="47"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="40" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="42"/>
       <c r="E50" s="42"/>
@@ -3497,7 +3497,7 @@
       <c r="S50" s="42"/>
       <c r="T50" s="42"/>
       <c r="U50" s="41" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="V50" s="42"/>
       <c r="W50" s="42"/>
@@ -3511,19 +3511,19 @@
       <c r="AE50" s="42"/>
       <c r="AF50" s="42"/>
       <c r="AG50" s="42"/>
-      <c r="AH50" s="47"/>
-      <c r="AI50" s="47"/>
-      <c r="AJ50" s="47"/>
+      <c r="AH50" s="46"/>
+      <c r="AI50" s="46"/>
+      <c r="AJ50" s="46"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="40" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="42"/>
       <c r="E51" s="42"/>
@@ -3543,7 +3543,7 @@
       <c r="S51" s="42"/>
       <c r="T51" s="42"/>
       <c r="U51" s="41" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="V51" s="42"/>
       <c r="W51" s="42"/>
@@ -3557,13 +3557,13 @@
       <c r="AE51" s="42"/>
       <c r="AF51" s="42"/>
       <c r="AG51" s="42"/>
-      <c r="AH51" s="47"/>
-      <c r="AI51" s="47"/>
-      <c r="AJ51" s="47"/>
+      <c r="AH51" s="46"/>
+      <c r="AI51" s="46"/>
+      <c r="AJ51" s="46"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B52" s="44"/>
       <c r="C52" s="41"/>
@@ -3597,13 +3597,13 @@
       <c r="AE52" s="42"/>
       <c r="AF52" s="42"/>
       <c r="AG52" s="42"/>
-      <c r="AH52" s="48"/>
-      <c r="AI52" s="48"/>
-      <c r="AJ52" s="48"/>
+      <c r="AH52" s="47"/>
+      <c r="AI52" s="47"/>
+      <c r="AJ52" s="47"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="44" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53" s="44"/>
       <c r="C53" s="41"/>
@@ -3637,9 +3637,9 @@
       <c r="AE53" s="42"/>
       <c r="AF53" s="42"/>
       <c r="AG53" s="42"/>
-      <c r="AH53" s="48"/>
-      <c r="AI53" s="48"/>
-      <c r="AJ53" s="48"/>
+      <c r="AH53" s="47"/>
+      <c r="AI53" s="47"/>
+      <c r="AJ53" s="47"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="31"/>
@@ -3649,19 +3649,19 @@
       <c r="F54" s="31"/>
       <c r="AF54" s="31"/>
       <c r="AG54" s="31"/>
-      <c r="AH54" s="49"/>
-      <c r="AI54" s="49"/>
-      <c r="AJ54" s="49"/>
+      <c r="AH54" s="48"/>
+      <c r="AI54" s="48"/>
+      <c r="AJ54" s="48"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D55" s="52"/>
       <c r="E55" s="51"/>
@@ -3672,7 +3672,7 @@
       <c r="J55" s="52"/>
       <c r="K55" s="52"/>
       <c r="L55" s="53" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M55" s="52"/>
       <c r="N55" s="52"/>
@@ -3694,7 +3694,7 @@
       <c r="AD55" s="52"/>
       <c r="AE55" s="52"/>
       <c r="AF55" s="53" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG55" s="51"/>
       <c r="AH55" s="54"/>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B56" s="55" t="s">
         <v>247</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B57" s="55" t="s">
         <v>250</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B58" s="55" t="s">
         <v>253</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B59" s="55" t="s">
         <v>256</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B60" s="55" t="s">
         <v>259</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B61" s="55" t="s">
         <v>262</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B62" s="55" t="s">
         <v>265</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B63" s="55" t="s">
         <v>268</v>
@@ -4071,13 +4071,13 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="57" t="s">
         <v>271</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D64" s="58"/>
       <c r="E64" s="54"/>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B65" s="55" t="s">
         <v>272</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B66" s="55" t="s">
         <v>274</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B67" s="55" t="s">
         <v>276</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B68" s="55" t="s">
         <v>278</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B69" s="55" t="s">
         <v>280</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B70" s="55" t="s">
         <v>282</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="57" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B71" s="57" t="s">
         <v>271</v>
@@ -4421,10 +4421,10 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="57" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C72" s="54"/>
       <c r="D72" s="58"/>
@@ -4490,334 +4490,334 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
+      <c r="I1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
+      <c r="A2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
+      <c r="A3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>87</v>
+      <c r="A5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>91</v>
+      <c r="A6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="27"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="27"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="27"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="27"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="27"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="27"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="27"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="27"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="27"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="27"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="27"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="27"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="27"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="27"/>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="27"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="27"/>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="27"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="27"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="27"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="27"/>
+      <c r="C26" s="21"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="27"/>
+      <c r="C27" s="21"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="27"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="27"/>
+      <c r="C29" s="21"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="27"/>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="27"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="27"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="27"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="27"/>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="27"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="27"/>
+      <c r="C36" s="21"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="27"/>
+      <c r="C37" s="21"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="27"/>
+      <c r="C38" s="21"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="27"/>
+      <c r="C39" s="21"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="27"/>
+      <c r="C40" s="21"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="27"/>
+      <c r="C41" s="21"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="27"/>
+      <c r="C42" s="21"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="27"/>
+      <c r="C43" s="21"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="27"/>
+      <c r="C44" s="21"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="27"/>
+      <c r="C45" s="21"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="27"/>
+      <c r="C46" s="21"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="27"/>
+      <c r="C47" s="21"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="27"/>
+      <c r="C48" s="21"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="27"/>
+      <c r="C49" s="21"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="27"/>
+      <c r="C50" s="21"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="27"/>
+      <c r="C51" s="21"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="27"/>
+      <c r="C52" s="21"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="27"/>
+      <c r="C53" s="21"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="27"/>
+      <c r="C54" s="21"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="27"/>
+      <c r="C55" s="21"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="27"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="27"/>
+      <c r="C57" s="21"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="27"/>
+      <c r="C58" s="21"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="27"/>
+      <c r="C59" s="21"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="27"/>
+      <c r="C60" s="21"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="27"/>
+      <c r="C61" s="21"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="27"/>
+      <c r="C62" s="21"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="27"/>
+      <c r="C63" s="21"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="27"/>
+      <c r="C64" s="21"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="27"/>
+      <c r="C65" s="21"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="27"/>
+      <c r="C66" s="21"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="27"/>
+      <c r="C67" s="21"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4848,22 +4848,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4886,45 +4886,45 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="A2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="22">
         <f>NOW()</f>
-        <v>43754.22831</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
+        <v>43755.20797</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4950,1120 +4950,1120 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="I1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
+      <c r="A2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
+      <c r="A3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="C7" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C8" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C9" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="B11" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="C11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C19" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C20" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="27" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
+      <c r="A22" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
+      <c r="A23" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
+      <c r="A25" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
+      <c r="A26" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="27" t="s">
+      <c r="A27" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
+      <c r="B27" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
+      <c r="A28" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
+      <c r="A29" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
+      <c r="A31" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
+      <c r="A32" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -6074,26 +6074,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6103,290 +6103,290 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="12"/>
-      <c r="W48" s="12"/>
+      <c r="A48" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
+      <c r="A49" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>201</v>
+      <c r="A58" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>203</v>
+      <c r="A59" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>205</v>
+      <c r="A60" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>141</v>
+      <c r="A61" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>209</v>
+      <c r="A63" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>211</v>
+      <c r="A64" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>214</v>
+      <c r="A65" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>216</v>
+      <c r="A66" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>220</v>
+      <c r="A67" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B69" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>173</v>
+        <v>244</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pnc_danger_sign_follow_up_mother.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_mother.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="288">
+  <si>
+    <t>list_name</t>
+  </si>
   <si>
     <t>form_title</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label::en</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -37,52 +46,133 @@
     <t>default_language</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>label::hi</t>
+  </si>
+  <si>
+    <t>label::id</t>
+  </si>
+  <si>
+    <t>label::sw</t>
+  </si>
+  <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
+    <t>constraint_message::hi</t>
+  </si>
+  <si>
+    <t>constraint_message::id</t>
+  </si>
+  <si>
+    <t>constraint_message::sw</t>
+  </si>
+  <si>
+    <t>constraint_message::ne</t>
+  </si>
+  <si>
+    <t>constraint_message::es</t>
+  </si>
+  <si>
+    <t>constraint_message::fr</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
     <t>PNC danger sign follow-up - mother</t>
   </si>
   <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>media::image</t>
+  </si>
+  <si>
+    <t>instance::tag</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>cht::notes</t>
+  </si>
+  <si>
     <t>pnc_danger_sign_follow_up_mother</t>
   </si>
   <si>
+    <t>begin group</t>
+  </si>
+  <si>
     <t>pages</t>
   </si>
   <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label::en</t>
+    <t>yes_no</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>label::hi</t>
-  </si>
-  <si>
-    <t>label::id</t>
-  </si>
-  <si>
-    <t>label::sw</t>
-  </si>
-  <si>
-    <t>label::ne</t>
-  </si>
-  <si>
-    <t>label::es</t>
-  </si>
-  <si>
-    <t>label::fr</t>
-  </si>
-  <si>
-    <t>yes_no</t>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t>yes</t>
@@ -91,12 +181,102 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>delivery_uuid</t>
+  </si>
+  <si>
+    <t>Delivery Report ID</t>
+  </si>
+  <si>
+    <t>translate_woman_label</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>the woman</t>
+  </si>
+  <si>
+    <t>translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>woman-start</t>
+  </si>
+  <si>
+    <t>The woman</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Parent ID</t>
+  </si>
+  <si>
     <t>lmp_approximations</t>
   </si>
   <si>
@@ -106,34 +286,31 @@
     <t>Upto 2 Months Ago</t>
   </si>
   <si>
+    <t>chw_name</t>
+  </si>
+  <si>
     <t>upto_3_months_ago</t>
   </si>
   <si>
+    <t>CHW name</t>
+  </si>
+  <si>
     <t>Upto 3 Months Ago</t>
   </si>
   <si>
-    <t>translate_woman_label</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>the woman</t>
-  </si>
-  <si>
     <t>upto_4_months_ago</t>
   </si>
   <si>
     <t>Upto 4 Months Ago</t>
   </si>
   <si>
-    <t>translate_woman_start_label</t>
-  </si>
-  <si>
-    <t>woman-start</t>
-  </si>
-  <si>
-    <t>The woman</t>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>CHW phone</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
   <si>
     <t>between_5_and_6_months_ago</t>
@@ -187,117 +364,15 @@
     <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message::en</t>
-  </si>
-  <si>
-    <t>constraint_message::hi</t>
-  </si>
-  <si>
-    <t>constraint_message::id</t>
-  </si>
-  <si>
-    <t>constraint_message::sw</t>
-  </si>
-  <si>
-    <t>constraint_message::ne</t>
-  </si>
-  <si>
-    <t>constraint_message::es</t>
-  </si>
-  <si>
-    <t>constraint_message::fr</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
-    <t>hint::en</t>
-  </si>
-  <si>
-    <t>hint::hi</t>
-  </si>
-  <si>
-    <t>hint::id</t>
-  </si>
-  <si>
-    <t>hint::sw</t>
-  </si>
-  <si>
-    <t>hint::ne</t>
-  </si>
-  <si>
-    <t>hint::es</t>
-  </si>
-  <si>
-    <t>hint::fr</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>media::image</t>
-  </si>
-  <si>
-    <t>instance::tag</t>
-  </si>
-  <si>
-    <t>repeat_count</t>
-  </si>
-  <si>
-    <t>cht::notes</t>
-  </si>
-  <si>
     <t>trimester2_choices</t>
   </si>
   <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>inputs</t>
-  </si>
-  <si>
-    <t>NO_LABEL</t>
-  </si>
-  <si>
-    <t>./source = 'user'</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
     <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>conditions</t>
   </si>
   <si>
@@ -307,12 +382,6 @@
     <t>Heart condition</t>
   </si>
   <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
     <t>asthma</t>
   </si>
   <si>
@@ -325,12 +394,6 @@
     <t>High blood pressure</t>
   </si>
   <si>
-    <t>delivery_uuid</t>
-  </si>
-  <si>
-    <t>Delivery Report ID</t>
-  </si>
-  <si>
     <t>known_diabetes</t>
   </si>
   <si>
@@ -343,33 +406,15 @@
     <t>Other</t>
   </si>
   <si>
-    <t>contact</t>
-  </si>
-  <si>
     <t>hiv_statuses</t>
   </si>
   <si>
     <t>known</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>What is the patient's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>fp_methods</t>
   </si>
   <si>
@@ -379,36 +424,18 @@
     <t>Progesterone only pills</t>
   </si>
   <si>
-    <t>short_name</t>
-  </si>
-  <si>
-    <t>Short Name</t>
-  </si>
-  <si>
     <t>Injectibles</t>
   </si>
   <si>
     <t>Implants (1 rod)</t>
   </si>
   <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
     <t>Implants (2 rods)</t>
   </si>
   <si>
     <t>IUD</t>
   </si>
   <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
     <t>Condoms</t>
   </si>
   <si>
@@ -418,21 +445,12 @@
     <t>Cycle beads</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>reasons_not_on_fp</t>
   </si>
   <si>
     <t>Wants to get pregnant</t>
   </si>
   <si>
-    <t>parent</t>
-  </si>
-  <si>
     <t>Did not want FP</t>
   </si>
   <si>
@@ -445,7 +463,7 @@
     <t>In person</t>
   </si>
   <si>
-    <t>Parent ID</t>
+    <t>calculate</t>
   </si>
   <si>
     <t>by_phone</t>
@@ -454,6 +472,9 @@
     <t>By phone</t>
   </si>
   <si>
+    <t>patient_age_in_years</t>
+  </si>
+  <si>
     <t>reasons_for_missing_visit</t>
   </si>
   <si>
@@ -496,30 +517,21 @@
     <t>Referred the mother</t>
   </si>
   <si>
-    <t>chw_name</t>
-  </si>
-  <si>
     <t>key_message</t>
   </si>
   <si>
+    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
+  </si>
+  <si>
     <t>Provided key health message</t>
   </si>
   <si>
-    <t>CHW name</t>
-  </si>
-  <si>
     <t>accompany</t>
   </si>
   <si>
     <t>Accompany the mother to facility</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>CHW phone</t>
-  </si>
-  <si>
     <t>recent_foods</t>
   </si>
   <si>
@@ -532,12 +544,12 @@
     <t>protein</t>
   </si>
   <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
     <t>Body building foods: Milk, eggs, meat</t>
   </si>
   <si>
-    <t>end group</t>
-  </si>
-  <si>
     <t>vegetables</t>
   </si>
   <si>
@@ -556,6 +568,9 @@
     <t>None of the above</t>
   </si>
   <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
     <t>pos_neg</t>
   </si>
   <si>
@@ -577,34 +592,19 @@
     <t>wants_to_get_pregnant</t>
   </si>
   <si>
+    <t>../inputs/contact/patient_id</t>
+  </si>
+  <si>
+    <t>patient_name</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name</t>
+  </si>
+  <si>
     <t>feels_sick_when_using_it</t>
   </si>
   <si>
     <t>Feels sick when using it</t>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>patient_age_in_years</t>
-  </si>
-  <si>
-    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
-  </si>
-  <si>
-    <t>patient_uuid</t>
-  </si>
-  <si>
-    <t>../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t>../inputs/contact/patient_id</t>
-  </si>
-  <si>
-    <t>patient_name</t>
-  </si>
-  <si>
-    <t>../inputs/contact/name</t>
   </si>
   <si>
     <t>patient_short_name</t>
@@ -912,6 +912,9 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+    </font>
     <font/>
     <font>
       <color rgb="FF000000"/>
@@ -921,17 +924,14 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -992,26 +992,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1024,6 +1018,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1052,35 +1052,25 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1088,103 +1078,113 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1248,1482 +1248,1482 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="O1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="21" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="C5" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="C6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="B7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="C9" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="C11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="C13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
       <c r="AH14" s="30"/>
       <c r="AI14" s="30"/>
       <c r="AJ14" s="30"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
+      <c r="C15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="A16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
+      <c r="A21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27"/>
+      <c r="A22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
+      <c r="A23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="AF24" s="32"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
+      <c r="AF24" s="31"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
+      <c r="A25" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35" t="s">
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="36" t="s">
+      <c r="C28" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="38" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="36" t="s">
+      <c r="C29" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="34" t="s">
-        <v>189</v>
+      <c r="A30" s="33" t="s">
+        <v>149</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="36" t="s">
+      <c r="C30" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="37"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="34" t="s">
-        <v>189</v>
+      <c r="A31" s="33" t="s">
+        <v>149</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="36" t="s">
+      <c r="C31" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG31" s="35"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG31" s="34"/>
       <c r="AH31" s="39"/>
       <c r="AI31" s="39"/>
       <c r="AJ31" s="39"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="34" t="s">
-        <v>189</v>
+      <c r="A32" s="33" t="s">
+        <v>149</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="36" t="s">
+      <c r="C32" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG32" s="35"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG32" s="34"/>
       <c r="AH32" s="39"/>
       <c r="AI32" s="39"/>
       <c r="AJ32" s="39"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
       <c r="AH33" s="40"/>
       <c r="AI33" s="40"/>
       <c r="AJ33" s="40"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="41" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>205</v>
@@ -2740,7 +2740,7 @@
       <c r="J34" s="43"/>
       <c r="K34" s="42"/>
       <c r="L34" s="42" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
@@ -2784,7 +2784,7 @@
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
       <c r="J35" s="43" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K35" s="43"/>
       <c r="L35" s="43"/>
@@ -2830,7 +2830,7 @@
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K36" s="43"/>
       <c r="L36" s="43"/>
@@ -2900,7 +2900,7 @@
       <c r="AD37" s="43"/>
       <c r="AE37" s="43"/>
       <c r="AF37" s="42" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="AG37" s="43"/>
       <c r="AH37" s="44"/>
@@ -2924,7 +2924,7 @@
       <c r="H38" s="43"/>
       <c r="I38" s="43"/>
       <c r="J38" s="43" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K38" s="42" t="s">
         <v>215</v>
@@ -2972,7 +2972,7 @@
       <c r="H39" s="43"/>
       <c r="I39" s="43"/>
       <c r="J39" s="43" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K39" s="42" t="s">
         <v>215</v>
@@ -3020,7 +3020,7 @@
       <c r="H40" s="43"/>
       <c r="I40" s="43"/>
       <c r="J40" s="43" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K40" s="42" t="s">
         <v>215</v>
@@ -3068,7 +3068,7 @@
       <c r="H41" s="43"/>
       <c r="I41" s="43"/>
       <c r="J41" s="43" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K41" s="42" t="s">
         <v>215</v>
@@ -3116,7 +3116,7 @@
       <c r="H42" s="43"/>
       <c r="I42" s="43"/>
       <c r="J42" s="43" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K42" s="42" t="s">
         <v>215</v>
@@ -3149,13 +3149,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="45" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B43" s="41" t="s">
         <v>226</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
@@ -3188,7 +3188,7 @@
       <c r="AD43" s="43"/>
       <c r="AE43" s="43"/>
       <c r="AF43" s="42" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="AG43" s="43"/>
       <c r="AH43" s="44"/>
@@ -3236,7 +3236,7 @@
       <c r="AD44" s="43"/>
       <c r="AE44" s="43"/>
       <c r="AF44" s="42" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="AG44" s="43"/>
       <c r="AH44" s="46"/>
@@ -3284,7 +3284,7 @@
       <c r="AD45" s="43"/>
       <c r="AE45" s="43"/>
       <c r="AF45" s="42" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="AG45" s="43"/>
       <c r="AH45" s="46"/>
@@ -3332,7 +3332,7 @@
       <c r="AD46" s="43"/>
       <c r="AE46" s="43"/>
       <c r="AF46" s="42" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="AG46" s="43"/>
       <c r="AH46" s="44"/>
@@ -3341,13 +3341,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="41" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>236</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
@@ -3358,7 +3358,7 @@
       <c r="J47" s="43"/>
       <c r="K47" s="43"/>
       <c r="L47" s="42" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="M47" s="43"/>
       <c r="N47" s="43"/>
@@ -3380,7 +3380,7 @@
       <c r="AD47" s="43"/>
       <c r="AE47" s="43"/>
       <c r="AF47" s="42" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="AG47" s="43"/>
       <c r="AH47" s="47"/>
@@ -3395,7 +3395,7 @@
         <v>238</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
@@ -3427,9 +3427,7 @@
       <c r="AC48" s="43"/>
       <c r="AD48" s="43"/>
       <c r="AE48" s="43"/>
-      <c r="AF48" s="42" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF48" s="42"/>
       <c r="AG48" s="43"/>
       <c r="AH48" s="47"/>
       <c r="AI48" s="47"/>
@@ -3437,13 +3435,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="41" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B49" s="41" t="s">
         <v>240</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
@@ -3475,9 +3473,7 @@
       <c r="AC49" s="43"/>
       <c r="AD49" s="43"/>
       <c r="AE49" s="43"/>
-      <c r="AF49" s="42" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF49" s="42"/>
       <c r="AG49" s="43"/>
       <c r="AH49" s="47"/>
       <c r="AI49" s="47"/>
@@ -3491,7 +3487,7 @@
         <v>243</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
@@ -3523,9 +3519,7 @@
       <c r="AC50" s="43"/>
       <c r="AD50" s="43"/>
       <c r="AE50" s="43"/>
-      <c r="AF50" s="42" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF50" s="42"/>
       <c r="AG50" s="43"/>
       <c r="AH50" s="47"/>
       <c r="AI50" s="47"/>
@@ -3533,13 +3527,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="41" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>245</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
@@ -3571,9 +3565,7 @@
       <c r="AC51" s="43"/>
       <c r="AD51" s="43"/>
       <c r="AE51" s="43"/>
-      <c r="AF51" s="42" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF51" s="42"/>
       <c r="AG51" s="43"/>
       <c r="AH51" s="47"/>
       <c r="AI51" s="47"/>
@@ -3581,7 +3573,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="41" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="B52" s="45"/>
       <c r="C52" s="42"/>
@@ -3621,7 +3613,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="45" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="B53" s="45"/>
       <c r="C53" s="42"/>
@@ -3660,26 +3652,26 @@
       <c r="AJ53" s="48"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="AF54" s="32"/>
-      <c r="AG54" s="32"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="AF54" s="31"/>
+      <c r="AG54" s="31"/>
       <c r="AH54" s="49"/>
       <c r="AI54" s="49"/>
       <c r="AJ54" s="49"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="50" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D55" s="52"/>
       <c r="E55" s="51"/>
@@ -3690,7 +3682,7 @@
       <c r="J55" s="52"/>
       <c r="K55" s="52"/>
       <c r="L55" s="53" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="M55" s="52"/>
       <c r="N55" s="52"/>
@@ -3712,7 +3704,7 @@
       <c r="AD55" s="52"/>
       <c r="AE55" s="52"/>
       <c r="AF55" s="53" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="AG55" s="51"/>
       <c r="AH55" s="54"/>
@@ -3721,13 +3713,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B56" s="55" t="s">
         <v>247</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D56" s="52"/>
       <c r="E56" s="51"/>
@@ -3769,13 +3761,13 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B57" s="55" t="s">
         <v>250</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D57" s="52"/>
       <c r="E57" s="51"/>
@@ -3817,13 +3809,13 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B58" s="55" t="s">
         <v>253</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D58" s="52"/>
       <c r="E58" s="51"/>
@@ -3865,13 +3857,13 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B59" s="55" t="s">
         <v>256</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D59" s="52"/>
       <c r="E59" s="51"/>
@@ -3913,13 +3905,13 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B60" s="55" t="s">
         <v>259</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D60" s="52"/>
       <c r="E60" s="51"/>
@@ -3961,13 +3953,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B61" s="55" t="s">
         <v>262</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D61" s="52"/>
       <c r="E61" s="51"/>
@@ -4009,13 +4001,13 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B62" s="55" t="s">
         <v>265</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D62" s="52"/>
       <c r="E62" s="51"/>
@@ -4057,13 +4049,13 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B63" s="55" t="s">
         <v>268</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D63" s="52"/>
       <c r="E63" s="51"/>
@@ -4105,13 +4097,13 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="57" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B64" s="57" t="s">
         <v>271</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D64" s="58"/>
       <c r="E64" s="54"/>
@@ -4149,13 +4141,13 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B65" s="55" t="s">
         <v>272</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D65" s="52"/>
       <c r="E65" s="51"/>
@@ -4197,13 +4189,13 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B66" s="55" t="s">
         <v>275</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D66" s="52"/>
       <c r="E66" s="51"/>
@@ -4238,20 +4230,20 @@
       <c r="AF66" s="51"/>
       <c r="AG66" s="51"/>
       <c r="AH66" s="54" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AI66" s="54"/>
       <c r="AJ66" s="54"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B67" s="55" t="s">
         <v>277</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D67" s="52"/>
       <c r="E67" s="51"/>
@@ -4293,13 +4285,13 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B68" s="55" t="s">
         <v>280</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="51"/>
@@ -4334,20 +4326,20 @@
       <c r="AF68" s="51"/>
       <c r="AG68" s="51"/>
       <c r="AH68" s="54" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="AI68" s="54"/>
       <c r="AJ68" s="54"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B69" s="55" t="s">
         <v>282</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="51"/>
@@ -4389,13 +4381,13 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="50" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B70" s="55" t="s">
         <v>285</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="51"/>
@@ -4437,7 +4429,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="57" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="B71" s="57" t="s">
         <v>271</v>
@@ -4479,10 +4471,10 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="57" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C72" s="54"/>
       <c r="D72" s="58"/>
@@ -4548,334 +4540,334 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
+      <c r="A2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
+      <c r="A3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>34</v>
+      <c r="A5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>39</v>
+      <c r="A6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="15"/>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="15"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="15"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="15"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="15"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="15"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="15"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="15"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="15"/>
+      <c r="C15" s="24"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="15"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="15"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="15"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="15"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="15"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="15"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="15"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="15"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="15"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="15"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="15"/>
+      <c r="C26" s="24"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="15"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="15"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="15"/>
+      <c r="C29" s="24"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="15"/>
+      <c r="C30" s="24"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="15"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="15"/>
+      <c r="C32" s="24"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="15"/>
+      <c r="C33" s="24"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="15"/>
+      <c r="C34" s="24"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="15"/>
+      <c r="C35" s="24"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="15"/>
+      <c r="C36" s="24"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="15"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="15"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="15"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="15"/>
+      <c r="C40" s="24"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="15"/>
+      <c r="C41" s="24"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="15"/>
+      <c r="C42" s="24"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="15"/>
+      <c r="C43" s="24"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="15"/>
+      <c r="C44" s="24"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="15"/>
+      <c r="C45" s="24"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="15"/>
+      <c r="C46" s="24"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="15"/>
+      <c r="C47" s="24"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="15"/>
+      <c r="C48" s="24"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="15"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="15"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="15"/>
+      <c r="C51" s="24"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="15"/>
+      <c r="C52" s="24"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="15"/>
+      <c r="C53" s="24"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="15"/>
+      <c r="C54" s="24"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="15"/>
+      <c r="C55" s="24"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="15"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="15"/>
+      <c r="C57" s="24"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="15"/>
+      <c r="C58" s="24"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="15"/>
+      <c r="C59" s="24"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="15"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="15"/>
+      <c r="C61" s="24"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="15"/>
+      <c r="C62" s="24"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="15"/>
+      <c r="C63" s="24"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="15"/>
+      <c r="C64" s="24"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="15"/>
+      <c r="C65" s="24"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="15"/>
+      <c r="C66" s="24"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="15"/>
+      <c r="C67" s="24"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4903,25 +4895,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4944,45 +4936,45 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="A2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="13">
         <f>NOW()</f>
-        <v>43773.5511</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+        <v>43773.58952</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5008,1120 +5000,1120 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
+      <c r="A2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
+      <c r="A3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
+      <c r="A5" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
+      <c r="A6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
+      <c r="A7" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="A8" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
+      <c r="A9" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
+      <c r="A11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
+      <c r="A12" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
+      <c r="A13" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
+      <c r="A14" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
+      <c r="A32" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -6132,26 +6124,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6161,290 +6153,290 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
+      <c r="A48" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
+      <c r="A49" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>159</v>
+      <c r="A58" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>162</v>
+      <c r="A59" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="18" t="s">
+      <c r="A60" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>165</v>
+      <c r="B60" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>108</v>
+      <c r="A61" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>170</v>
+      <c r="A63" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C64" s="18" t="s">
+      <c r="A64" s="19" t="s">
         <v>172</v>
       </c>
+      <c r="B64" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>175</v>
+      <c r="A65" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>177</v>
+      <c r="A66" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>179</v>
+      <c r="A67" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pnc_danger_sign_follow_up_mother.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_mother.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\apoorva\cht-core\config\default\forms\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D47B5C3-34A4-4C02-A122-5A5195D285CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="288">
   <si>
     <t>type</t>
   </si>
@@ -120,7 +138,7 @@
     <t>cht::notes</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -129,7 +147,7 @@
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t xml:space="preserve">./source = 'user'</t>
+    <t>./source = 'user'</t>
   </si>
   <si>
     <t>field-list</t>
@@ -150,28 +168,22 @@
     <t>source_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Source ID</t>
+    <t>Source ID</t>
   </si>
   <si>
     <t>delivery_uuid</t>
   </si>
   <si>
-    <t xml:space="preserve">Delivery Report ID</t>
+    <t>Delivery Report ID</t>
   </si>
   <si>
     <t>contact</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
     <t>_id</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the patient's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
+    <t>What is the patient's name?</t>
   </si>
   <si>
     <t>Name</t>
@@ -180,19 +192,19 @@
     <t>short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Short Name</t>
+    <t>Short Name</t>
   </si>
   <si>
     <t>patient_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient ID</t>
+    <t>Patient ID</t>
   </si>
   <si>
     <t>date_of_birth</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of Birth</t>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>sex</t>
@@ -204,22 +216,22 @@
     <t>parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Parent ID</t>
+    <t>Parent ID</t>
   </si>
   <si>
     <t>chw_name</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW name</t>
+    <t>CHW name</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
+    <t>CHW phone</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
   <si>
     <t>calculate</t>
@@ -228,7 +240,7 @@
     <t>patient_age_in_years</t>
   </si>
   <si>
-    <t xml:space="preserve">floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
+    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
   </si>
   <si>
     <t>patient_uuid</t>
@@ -249,19 +261,19 @@
     <t>patient_short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
   </si>
   <si>
     <t>patient_short_name_start</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
   </si>
   <si>
     <t>t_danger_signs_referral_follow_up_date</t>
   </si>
   <si>
-    <t xml:space="preserve">date-time(decimal-date-time(today()) + 3)</t>
+    <t>date-time(decimal-date-time(today()) + 3)</t>
   </si>
   <si>
     <t>t_danger_signs_referral_follow_up</t>
@@ -273,16 +285,16 @@
     <t>danger_signs</t>
   </si>
   <si>
-    <t xml:space="preserve">Danger Sign Follow-up - Mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no</t>
+    <t>Danger Sign Follow-up - Mother</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
   </si>
   <si>
     <t>visit_confirm</t>
   </si>
   <si>
-    <t xml:space="preserve">Did ${patient_short_name} visit the health facility as recommended?</t>
+    <t>Did ${patient_short_name} visit the health facility as recommended?</t>
   </si>
   <si>
     <t>yes</t>
@@ -291,7 +303,7 @@
     <t>danger_sign_present</t>
   </si>
   <si>
-    <t xml:space="preserve">Is she still experiencing any danger signs?</t>
+    <t>Is she still experiencing any danger signs?</t>
   </si>
   <si>
     <t>note</t>
@@ -303,7 +315,7 @@
     <t xml:space="preserve">Please indicate which danger signs ${patient_short_name} is experiencing. </t>
   </si>
   <si>
-    <t xml:space="preserve">../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
+    <t>../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
   </si>
   <si>
     <t>fever</t>
@@ -315,19 +327,19 @@
     <t>severe_headache</t>
   </si>
   <si>
-    <t xml:space="preserve">Severe headache</t>
+    <t>Severe headache</t>
   </si>
   <si>
     <t>vaginal_bleeding</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaginal bleeding</t>
+    <t>Vaginal bleeding</t>
   </si>
   <si>
     <t>vaginal_discharge</t>
   </si>
   <si>
-    <t xml:space="preserve">Foul smelling vaginal discharge</t>
+    <t>Foul smelling vaginal discharge</t>
   </si>
   <si>
     <t>convulsion</t>
@@ -339,7 +351,7 @@
     <t>r_danger_sign_present</t>
   </si>
   <si>
-    <t xml:space="preserve">if(selected(../fever, 'yes') or
+    <t>if(selected(../fever, 'yes') or
 selected(../severe_headache, 'yes') or
 selected(../vaginal_bleeding, 'yes') or
 selected(../vaginal_discharge, 'yes') or
@@ -353,10 +365,10 @@
     <t>congratulate_no_ds_note</t>
   </si>
   <si>
-    <t xml:space="preserve">Great news! Please continue to closely monitor her.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
+    <t>Great news! Please continue to closely monitor her.</t>
+  </si>
+  <si>
+    <t>../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
   </si>
   <si>
     <t>refer_patient_note_1</t>
@@ -365,7 +377,7 @@
     <t xml:space="preserve">${patient_short_name_start} should visit the health facility immediately if she is experiencing any of these danger signs. </t>
   </si>
   <si>
-    <t xml:space="preserve">../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
+    <t>../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
   </si>
   <si>
     <t>refer_patient_note_2</t>
@@ -377,7 +389,7 @@
     <t>custom_translations</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one translate_woman_label</t>
+    <t>select_one translate_woman_label</t>
   </si>
   <si>
     <t>custom_woman_label_translator</t>
@@ -392,7 +404,7 @@
     <t>jr:choice-name(${custom_woman_label_translator},'${custom_woman_label_translator}')</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one translate_woman_start_label</t>
+    <t>select_one translate_woman_start_label</t>
   </si>
   <si>
     <t>custom_woman_start_label_translator</t>
@@ -416,7 +428,7 @@
     <t>${visit_confirm}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman went to the health facility as recommended.</t>
+    <t>Whether or not the woman went to the health facility as recommended.</t>
   </si>
   <si>
     <t>__still_experiencing_danger_sign</t>
@@ -425,7 +437,7 @@
     <t>${danger_sign_present}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is still experiencing any danger signs.</t>
+    <t>Whether or not the woman is still experiencing any danger signs.</t>
   </si>
   <si>
     <t>__fever</t>
@@ -434,7 +446,7 @@
     <t>${fever}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman has a fever.</t>
+    <t>Whether or not the woman has a fever.</t>
   </si>
   <si>
     <t>__severe_headache</t>
@@ -443,7 +455,7 @@
     <t>${severe_headache}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is suffering from severe headaches.</t>
+    <t>Whether or not the woman is suffering from severe headaches.</t>
   </si>
   <si>
     <t>__vaginal_bleeding</t>
@@ -452,7 +464,7 @@
     <t>${vaginal_bleeding}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is experiencing vaginal bleeding.</t>
+    <t>Whether or not the woman is experiencing vaginal bleeding.</t>
   </si>
   <si>
     <t>__vaginal_discharge</t>
@@ -461,7 +473,7 @@
     <t>${vaginal_discharge}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is experiencing foul smelling vaginal discharge.</t>
+    <t>Whether or not the woman is experiencing foul smelling vaginal discharge.</t>
   </si>
   <si>
     <t>__convulsions</t>
@@ -470,7 +482,7 @@
     <t>${convulsion}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is suffering from convulsions.</t>
+    <t>Whether or not the woman is suffering from convulsions.</t>
   </si>
   <si>
     <t>__has_danger_sign</t>
@@ -479,7 +491,7 @@
     <t>${r_danger_sign_present}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not any danger signs are present.</t>
+    <t>Whether or not any danger signs are present.</t>
   </si>
   <si>
     <t>meta</t>
@@ -491,7 +503,7 @@
     <t>../../../inputs/contact/_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient UUID</t>
+    <t>Patient UUID</t>
   </si>
   <si>
     <t>__patient_id</t>
@@ -506,7 +518,7 @@
     <t>../../../inputs/contact/parent/_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Household UUID</t>
+    <t>Household UUID</t>
   </si>
   <si>
     <t>__source</t>
@@ -530,7 +542,7 @@
     <t>../../../inputs/delivery_uuid</t>
   </si>
   <si>
-    <t xml:space="preserve">Delivery UUID</t>
+    <t>Delivery UUID</t>
   </si>
   <si>
     <t>list_name</t>
@@ -554,7 +566,7 @@
     <t>woman</t>
   </si>
   <si>
-    <t xml:space="preserve">the woman</t>
+    <t>the woman</t>
   </si>
   <si>
     <t>translate_woman_start_label</t>
@@ -563,7 +575,7 @@
     <t>woman-start</t>
   </si>
   <si>
-    <t xml:space="preserve">The woman</t>
+    <t>The woman</t>
   </si>
   <si>
     <t>form_title</t>
@@ -587,7 +599,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">PNC danger sign follow-up - mother</t>
+    <t>PNC danger sign follow-up - mother</t>
   </si>
   <si>
     <t>pnc_danger_sign_follow_up_mother</t>
@@ -605,31 +617,31 @@
     <t>upto_2_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 2 Months Ago</t>
+    <t>Upto 2 Months Ago</t>
   </si>
   <si>
     <t>upto_3_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 3 Months Ago</t>
+    <t>Upto 3 Months Ago</t>
   </si>
   <si>
     <t>upto_4_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 4 Months Ago</t>
+    <t>Upto 4 Months Ago</t>
   </si>
   <si>
     <t>between_5_and_6_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Between 5 And 6 Months Ago</t>
+    <t>Between 5 And 6 Months Ago</t>
   </si>
   <si>
     <t>between_7_and_8_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Between 7 And 8 Months Ago</t>
+    <t>Between 7 And 8 Months Ago</t>
   </si>
   <si>
     <t>trimester1_choices</t>
@@ -638,37 +650,37 @@
     <t>eat_extra_meal</t>
   </si>
   <si>
-    <t xml:space="preserve">Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
   </si>
   <si>
     <t>take_iron_and_folic_acid</t>
   </si>
   <si>
-    <t xml:space="preserve">Take iron and folic acid tablets</t>
+    <t>Take iron and folic acid tablets</t>
   </si>
   <si>
     <t>avoid_heavy_work</t>
   </si>
   <si>
-    <t xml:space="preserve">Avoid heavy work, rest more</t>
+    <t>Avoid heavy work, rest more</t>
   </si>
   <si>
     <t>sleep_under_bednet</t>
   </si>
   <si>
-    <t xml:space="preserve">Sleep under an insecticide treated bednet</t>
+    <t>Sleep under an insecticide treated bednet</t>
   </si>
   <si>
     <t>go_for_anc_visit</t>
   </si>
   <si>
-    <t xml:space="preserve">Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
   </si>
   <si>
     <t>develop_birth_plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
     <t>trimester2_choices</t>
@@ -677,7 +689,7 @@
     <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
-    <t xml:space="preserve">Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
     <t>conditions</t>
@@ -686,7 +698,7 @@
     <t>heart_condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Heart condition</t>
+    <t>Heart condition</t>
   </si>
   <si>
     <t>asthma</t>
@@ -698,13 +710,13 @@
     <t>high_blood_pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">High blood pressure</t>
+    <t>High blood pressure</t>
   </si>
   <si>
     <t>known_diabetes</t>
   </si>
   <si>
-    <t xml:space="preserve">Known diabetes</t>
+    <t>Known diabetes</t>
   </si>
   <si>
     <t>other</t>
@@ -725,19 +737,19 @@
     <t>fp_methods</t>
   </si>
   <si>
-    <t xml:space="preserve">Combined oral contraceptives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progesterone only pills</t>
+    <t>Combined oral contraceptives</t>
+  </si>
+  <si>
+    <t>Progesterone only pills</t>
   </si>
   <si>
     <t>Injectibles</t>
   </si>
   <si>
-    <t xml:space="preserve">Implants (1 rod)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implants (2 rods)</t>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>Implants (2 rods)</t>
   </si>
   <si>
     <t>IUD</t>
@@ -746,19 +758,19 @@
     <t>Condoms</t>
   </si>
   <si>
-    <t xml:space="preserve">Tubal ligation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cycle beads</t>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
   </si>
   <si>
     <t>reasons_not_on_fp</t>
   </si>
   <si>
-    <t xml:space="preserve">Wants to get pregnant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did not want FP</t>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
+    <t>Did not want FP</t>
   </si>
   <si>
     <t>follow_up_methods</t>
@@ -767,13 +779,13 @@
     <t>in_person</t>
   </si>
   <si>
-    <t xml:space="preserve">In person</t>
+    <t>In person</t>
   </si>
   <si>
     <t>by_phone</t>
   </si>
   <si>
-    <t xml:space="preserve">By phone</t>
+    <t>By phone</t>
   </si>
   <si>
     <t>reasons_for_missing_visit</t>
@@ -782,25 +794,25 @@
     <t>not_reminded</t>
   </si>
   <si>
-    <t xml:space="preserve">She was not reminded</t>
+    <t>She was not reminded</t>
   </si>
   <si>
     <t>travelled</t>
   </si>
   <si>
-    <t xml:space="preserve">She had travelled</t>
+    <t>She had travelled</t>
   </si>
   <si>
     <t>no_lab_results</t>
   </si>
   <si>
-    <t xml:space="preserve">No Lab results yet</t>
+    <t>No Lab results yet</t>
   </si>
   <si>
     <t>too_early</t>
   </si>
   <si>
-    <t xml:space="preserve">It is too early to start clinic</t>
+    <t>It is too early to start clinic</t>
   </si>
   <si>
     <t>relocated</t>
@@ -815,19 +827,19 @@
     <t>referred</t>
   </si>
   <si>
-    <t xml:space="preserve">Referred the mother</t>
+    <t>Referred the mother</t>
   </si>
   <si>
     <t>key_message</t>
   </si>
   <si>
-    <t xml:space="preserve">Provided key health message</t>
+    <t>Provided key health message</t>
   </si>
   <si>
     <t>accompany</t>
   </si>
   <si>
-    <t xml:space="preserve">Accompany the mother to facility</t>
+    <t>Accompany the mother to facility</t>
   </si>
   <si>
     <t>recent_foods</t>
@@ -836,31 +848,31 @@
     <t>carbohydrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
   </si>
   <si>
     <t>protein</t>
   </si>
   <si>
-    <t xml:space="preserve">Body building foods: Milk, eggs, meat</t>
+    <t>Body building foods: Milk, eggs, meat</t>
   </si>
   <si>
     <t>vegetables</t>
   </si>
   <si>
-    <t xml:space="preserve">Vegetables: Sukuma wiki, cabbages, traditional greens</t>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
   </si>
   <si>
     <t>fruits</t>
   </si>
   <si>
-    <t xml:space="preserve">Fruits: Mangoes, ripe bananas, oranges</t>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve">None of the above</t>
+    <t>None of the above</t>
   </si>
   <si>
     <t>pos_neg</t>
@@ -887,66 +899,81 @@
     <t>feels_sick_when_using_it</t>
   </si>
   <si>
-    <t xml:space="preserve">Feels sick when using it</t>
+    <t>Feels sick when using it</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>select-contact type-person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd-MM-yyyy HH-mm-ss"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color indexed="64"/>
       <name val="Arial"/>
-      <color indexed="64"/>
-      <sz val="10.000000"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
-    </font>
-    <font/>
-    <font>
-      <name val="Arial"/>
-      <color indexed="64"/>
-      <sz val="8.000000"/>
-    </font>
-    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="64"/>
-      <sz val="8.000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="8.000000"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color indexed="64"/>
       <name val="Arial"/>
-      <color rgb="FF76A5AF"/>
-      <sz val="8.000000"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <b/>
-      <color indexed="64"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color indexed="64"/>
       <name val="Arial"/>
-      <color indexed="64"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF76A5AF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1037,7 +1064,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1051,93 +1077,93 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="6" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="8" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="5" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="5" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="10" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1150,295 +1176,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -1490,7 +1236,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1561,45 +1307,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AJ72"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19"/>
-    <col customWidth="1" min="2" max="2" width="33.289999999999999"/>
-    <col customWidth="1" min="3" max="3" width="43.289999999999999"/>
-    <col customWidth="1" hidden="1" min="4" max="5" width="8.5700000000000003"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="8.7100000000000009"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="8.8599999999999994"/>
-    <col customWidth="1" hidden="1" min="8" max="9" width="8.1400000000000006"/>
-    <col customWidth="1" min="10" max="10" width="14.43"/>
-    <col customWidth="1" min="11" max="11" width="53.859999999999999"/>
-    <col customWidth="1" min="12" max="12" width="17.43"/>
-    <col customWidth="1" min="13" max="13" width="37.710000000000001"/>
-    <col customWidth="1" min="14" max="14" width="32.710000000000001"/>
-    <col customWidth="1" hidden="1" min="15" max="20" width="25.859999999999999"/>
-    <col customWidth="1" min="21" max="21" width="73.859999999999999"/>
-    <col customWidth="1" min="22" max="22" width="14.43"/>
-    <col customWidth="1" min="23" max="23" width="30"/>
-    <col customWidth="1" hidden="1" min="24" max="29" width="14.43"/>
-    <col customWidth="1" min="30" max="30" width="14.43"/>
-    <col customWidth="1" min="31" max="36" width="29.859999999999999"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="4" max="5" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="8.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="53.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" customWidth="1"/>
+    <col min="15" max="20" width="25.88671875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="73.88671875" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="30" customWidth="1"/>
+    <col min="24" max="29" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.44140625" customWidth="1"/>
+    <col min="31" max="36" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1455,7 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1753,7 +1503,7 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -1799,7 +1549,7 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -1843,7 +1593,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1887,7 +1637,7 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1931,15 +1681,15 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1950,7 +1700,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1977,7 +1727,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1985,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2021,15 +1771,15 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2065,15 +1815,15 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2109,15 +1859,15 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2155,15 +1905,15 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2199,12 +1949,12 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>36</v>
@@ -2243,15 +1993,15 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2287,12 +2037,12 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -2331,7 +2081,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -2375,15 +2125,15 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2419,15 +2169,15 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2463,9 +2213,9 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>47</v>
@@ -2505,12 +2255,12 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2547,12 +2297,12 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2589,9 +2339,9 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>47</v>
@@ -2631,9 +2381,9 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2673,18 +2423,18 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF24" s="8"/>
       <c r="AH24" s="9"/>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>36</v>
@@ -2707,7 +2457,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
@@ -2727,12 +2477,12 @@
       <c r="AI25" s="12"/>
       <c r="AJ25" s="12"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>36</v>
@@ -2755,7 +2505,7 @@
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
@@ -2775,12 +2525,12 @@
       <c r="AI26" s="12"/>
       <c r="AJ26" s="12"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>36</v>
@@ -2803,7 +2553,7 @@
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
@@ -2823,12 +2573,12 @@
       <c r="AI27" s="12"/>
       <c r="AJ27" s="12"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>36</v>
@@ -2851,7 +2601,7 @@
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
@@ -2871,12 +2621,12 @@
       <c r="AI28" s="12"/>
       <c r="AJ28" s="12"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>36</v>
@@ -2899,7 +2649,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
@@ -2919,12 +2669,12 @@
       <c r="AI29" s="12"/>
       <c r="AJ29" s="12"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>36</v>
@@ -2947,7 +2697,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
@@ -2967,12 +2717,12 @@
       <c r="AI30" s="12"/>
       <c r="AJ30" s="12"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>36</v>
@@ -2995,7 +2745,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
@@ -3015,12 +2765,12 @@
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>36</v>
@@ -3043,7 +2793,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
@@ -3063,7 +2813,7 @@
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3073,15 +2823,15 @@
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -3119,15 +2869,15 @@
       <c r="AI34" s="17"/>
       <c r="AJ34" s="17"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -3136,7 +2886,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -3165,15 +2915,15 @@
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -3182,7 +2932,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -3211,15 +2961,15 @@
       <c r="AI36" s="18"/>
       <c r="AJ36" s="18"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -3229,7 +2979,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
@@ -3259,15 +3009,15 @@
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -3276,10 +3026,10 @@
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
@@ -3307,15 +3057,15 @@
       <c r="AI38" s="17"/>
       <c r="AJ38" s="17"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -3324,10 +3074,10 @@
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
@@ -3355,15 +3105,15 @@
       <c r="AI39" s="17"/>
       <c r="AJ39" s="17"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -3372,10 +3122,10 @@
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
@@ -3403,15 +3153,15 @@
       <c r="AI40" s="17"/>
       <c r="AJ40" s="17"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -3420,10 +3170,10 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
@@ -3451,15 +3201,15 @@
       <c r="AI41" s="17"/>
       <c r="AJ41" s="17"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -3468,10 +3218,10 @@
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
@@ -3499,12 +3249,12 @@
       <c r="AI42" s="17"/>
       <c r="AJ42" s="17"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>36</v>
@@ -3527,7 +3277,7 @@
       <c r="S43" s="16"/>
       <c r="T43" s="16"/>
       <c r="U43" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V43" s="16"/>
       <c r="W43" s="16"/>
@@ -3547,15 +3297,15 @@
       <c r="AI43" s="17"/>
       <c r="AJ43" s="17"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -3565,7 +3315,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
@@ -3595,15 +3345,15 @@
       <c r="AI44" s="18"/>
       <c r="AJ44" s="18"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
@@ -3613,7 +3363,7 @@
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
@@ -3643,15 +3393,15 @@
       <c r="AI45" s="18"/>
       <c r="AJ45" s="18"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -3661,7 +3411,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
       <c r="K46" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
@@ -3691,12 +3441,12 @@
       <c r="AI46" s="17"/>
       <c r="AJ46" s="17"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>36</v>
@@ -3739,12 +3489,12 @@
       <c r="AI47" s="19"/>
       <c r="AJ47" s="19"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>36</v>
@@ -3767,7 +3517,7 @@
       <c r="S48" s="16"/>
       <c r="T48" s="16"/>
       <c r="U48" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V48" s="16"/>
       <c r="W48" s="16"/>
@@ -3785,12 +3535,12 @@
       <c r="AI48" s="19"/>
       <c r="AJ48" s="19"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>36</v>
@@ -3813,7 +3563,7 @@
       <c r="S49" s="16"/>
       <c r="T49" s="16"/>
       <c r="U49" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
@@ -3831,12 +3581,12 @@
       <c r="AI49" s="19"/>
       <c r="AJ49" s="19"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>36</v>
@@ -3859,7 +3609,7 @@
       <c r="S50" s="16"/>
       <c r="T50" s="16"/>
       <c r="U50" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V50" s="16"/>
       <c r="W50" s="16"/>
@@ -3877,12 +3627,12 @@
       <c r="AI50" s="19"/>
       <c r="AJ50" s="19"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>36</v>
@@ -3905,7 +3655,7 @@
       <c r="S51" s="16"/>
       <c r="T51" s="16"/>
       <c r="U51" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V51" s="16"/>
       <c r="W51" s="16"/>
@@ -3923,9 +3673,9 @@
       <c r="AI51" s="19"/>
       <c r="AJ51" s="19"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
@@ -3963,9 +3713,9 @@
       <c r="AI52" s="20"/>
       <c r="AJ52" s="20"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
@@ -4003,7 +3753,7 @@
       <c r="AI53" s="20"/>
       <c r="AJ53" s="20"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4015,12 +3765,12 @@
       <c r="AI54" s="21"/>
       <c r="AJ54" s="21"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>36</v>
@@ -4063,12 +3813,12 @@
       <c r="AI55" s="25"/>
       <c r="AJ55" s="25"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>36</v>
@@ -4091,7 +3841,7 @@
       <c r="S56" s="23"/>
       <c r="T56" s="23"/>
       <c r="U56" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="V56" s="23"/>
       <c r="W56" s="23"/>
@@ -4106,17 +3856,17 @@
       <c r="AF56" s="23"/>
       <c r="AG56" s="23"/>
       <c r="AH56" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AI56" s="25"/>
       <c r="AJ56" s="25"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>36</v>
@@ -4139,7 +3889,7 @@
       <c r="S57" s="23"/>
       <c r="T57" s="23"/>
       <c r="U57" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V57" s="23"/>
       <c r="W57" s="23"/>
@@ -4154,17 +3904,17 @@
       <c r="AF57" s="23"/>
       <c r="AG57" s="23"/>
       <c r="AH57" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AI57" s="25"/>
       <c r="AJ57" s="25"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" s="23" t="s">
         <v>36</v>
@@ -4187,7 +3937,7 @@
       <c r="S58" s="23"/>
       <c r="T58" s="23"/>
       <c r="U58" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V58" s="23"/>
       <c r="W58" s="23"/>
@@ -4202,17 +3952,17 @@
       <c r="AF58" s="23"/>
       <c r="AG58" s="23"/>
       <c r="AH58" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AI58" s="25"/>
       <c r="AJ58" s="25"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C59" s="23" t="s">
         <v>36</v>
@@ -4235,7 +3985,7 @@
       <c r="S59" s="23"/>
       <c r="T59" s="23"/>
       <c r="U59" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V59" s="23"/>
       <c r="W59" s="23"/>
@@ -4250,17 +4000,17 @@
       <c r="AF59" s="23"/>
       <c r="AG59" s="23"/>
       <c r="AH59" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AI59" s="25"/>
       <c r="AJ59" s="25"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>36</v>
@@ -4283,7 +4033,7 @@
       <c r="S60" s="23"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V60" s="23"/>
       <c r="W60" s="23"/>
@@ -4298,17 +4048,17 @@
       <c r="AF60" s="23"/>
       <c r="AG60" s="23"/>
       <c r="AH60" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AI60" s="25"/>
       <c r="AJ60" s="25"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>36</v>
@@ -4331,7 +4081,7 @@
       <c r="S61" s="23"/>
       <c r="T61" s="23"/>
       <c r="U61" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V61" s="23"/>
       <c r="W61" s="23"/>
@@ -4346,17 +4096,17 @@
       <c r="AF61" s="23"/>
       <c r="AG61" s="23"/>
       <c r="AH61" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AI61" s="25"/>
       <c r="AJ61" s="25"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>36</v>
@@ -4379,7 +4129,7 @@
       <c r="S62" s="23"/>
       <c r="T62" s="23"/>
       <c r="U62" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V62" s="23"/>
       <c r="W62" s="23"/>
@@ -4394,17 +4144,17 @@
       <c r="AF62" s="23"/>
       <c r="AG62" s="23"/>
       <c r="AH62" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>36</v>
@@ -4427,7 +4177,7 @@
       <c r="S63" s="23"/>
       <c r="T63" s="23"/>
       <c r="U63" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="V63" s="23"/>
       <c r="W63" s="23"/>
@@ -4442,17 +4192,17 @@
       <c r="AF63" s="23"/>
       <c r="AG63" s="23"/>
       <c r="AH63" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AI63" s="25"/>
       <c r="AJ63" s="25"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>36</v>
@@ -4491,12 +4241,12 @@
       <c r="AI64" s="25"/>
       <c r="AJ64" s="25"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>36</v>
@@ -4519,7 +4269,7 @@
       <c r="S65" s="23"/>
       <c r="T65" s="23"/>
       <c r="U65" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V65" s="23"/>
       <c r="W65" s="23"/>
@@ -4534,17 +4284,17 @@
       <c r="AF65" s="23"/>
       <c r="AG65" s="23"/>
       <c r="AH65" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AI65" s="25"/>
       <c r="AJ65" s="25"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>36</v>
@@ -4567,7 +4317,7 @@
       <c r="S66" s="23"/>
       <c r="T66" s="23"/>
       <c r="U66" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V66" s="23"/>
       <c r="W66" s="23"/>
@@ -4582,17 +4332,17 @@
       <c r="AF66" s="23"/>
       <c r="AG66" s="23"/>
       <c r="AH66" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AI66" s="25"/>
       <c r="AJ66" s="25"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>36</v>
@@ -4615,7 +4365,7 @@
       <c r="S67" s="23"/>
       <c r="T67" s="23"/>
       <c r="U67" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V67" s="23"/>
       <c r="W67" s="23"/>
@@ -4630,17 +4380,17 @@
       <c r="AF67" s="23"/>
       <c r="AG67" s="23"/>
       <c r="AH67" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AI67" s="25"/>
       <c r="AJ67" s="25"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>36</v>
@@ -4663,7 +4413,7 @@
       <c r="S68" s="23"/>
       <c r="T68" s="23"/>
       <c r="U68" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V68" s="23"/>
       <c r="W68" s="23"/>
@@ -4683,12 +4433,12 @@
       <c r="AI68" s="25"/>
       <c r="AJ68" s="25"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>36</v>
@@ -4711,7 +4461,7 @@
       <c r="S69" s="23"/>
       <c r="T69" s="23"/>
       <c r="U69" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V69" s="23"/>
       <c r="W69" s="23"/>
@@ -4726,17 +4476,17 @@
       <c r="AF69" s="23"/>
       <c r="AG69" s="23"/>
       <c r="AH69" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AI69" s="25"/>
       <c r="AJ69" s="25"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>36</v>
@@ -4759,7 +4509,7 @@
       <c r="S70" s="23"/>
       <c r="T70" s="23"/>
       <c r="U70" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V70" s="23"/>
       <c r="W70" s="23"/>
@@ -4774,17 +4524,17 @@
       <c r="AF70" s="23"/>
       <c r="AG70" s="23"/>
       <c r="AH70" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AI70" s="25"/>
       <c r="AJ70" s="25"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4821,12 +4571,12 @@
       <c r="AI71" s="25"/>
       <c r="AJ71" s="25"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4864,46 +4614,38 @@
       <c r="AJ72" s="25"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00CB0012-006B-40C5-BD97-00A0002C00A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J72</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J72" xr:uid="{00CB0012-006B-40C5-BD97-00A0002C00A3}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.289999999999999"/>
-    <col customWidth="1" min="2" max="22" width="45.859999999999999"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="22" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -4943,15 +4685,15 @@
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
@@ -4973,15 +4715,15 @@
       <c r="U2" s="37"/>
       <c r="V2" s="37"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>172</v>
-      </c>
       <c r="C3" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -5003,7 +4745,7 @@
       <c r="U3" s="37"/>
       <c r="V3" s="37"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="36"/>
@@ -5027,260 +4769,259 @@
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="38" t="s">
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="37"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="37"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="37"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="37"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="37"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="37"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="37"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="37"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="37"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="37"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="37"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="37"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21"/>
-    <col customWidth="1" min="2" max="2" width="22.710000000000001"/>
-    <col customWidth="1" min="3" max="3" width="24.57"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
@@ -5302,26 +5043,26 @@
       <c r="Y1" s="28"/>
       <c r="Z1" s="28"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="40">
         <f ca="1">NOW()</f>
-        <v>44830.385034722225</v>
+        <v>45778.932966550929</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5344,34 +5085,33 @@
       <c r="Z2" s="21"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.289999999999999"/>
-    <col customWidth="1" min="2" max="23" width="45.859999999999999"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="23" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -5412,15 +5152,15 @@
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
@@ -5443,15 +5183,15 @@
       <c r="V2" s="37"/>
       <c r="W2" s="37"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>172</v>
-      </c>
       <c r="C3" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -5474,7 +5214,7 @@
       <c r="V3" s="37"/>
       <c r="W3" s="37"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -5499,15 +5239,15 @@
       <c r="V4" s="37"/>
       <c r="W4" s="37"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>191</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>193</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -5530,15 +5270,15 @@
       <c r="V5" s="37"/>
       <c r="W5" s="37"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
@@ -5561,15 +5301,15 @@
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -5592,15 +5332,15 @@
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -5623,15 +5363,15 @@
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -5654,7 +5394,7 @@
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -5679,15 +5419,15 @@
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>202</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>204</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -5710,15 +5450,15 @@
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -5741,15 +5481,15 @@
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -5772,15 +5512,15 @@
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -5803,15 +5543,15 @@
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -5834,15 +5574,15 @@
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -5865,7 +5605,7 @@
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -5890,15 +5630,15 @@
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -5921,15 +5661,15 @@
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
@@ -5952,15 +5692,15 @@
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
@@ -5983,15 +5723,15 @@
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
@@ -6014,15 +5754,15 @@
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
@@ -6045,15 +5785,15 @@
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>215</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>217</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
@@ -6076,7 +5816,7 @@
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -6101,15 +5841,15 @@
       <c r="V24" s="37"/>
       <c r="W24" s="37"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>218</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>220</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
@@ -6132,15 +5872,15 @@
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -6163,15 +5903,15 @@
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
@@ -6194,15 +5934,15 @@
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
@@ -6225,15 +5965,15 @@
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
@@ -6256,7 +5996,7 @@
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -6281,15 +6021,15 @@
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
@@ -6312,15 +6052,15 @@
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>231</v>
-      </c>
       <c r="C32" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
@@ -6343,7 +6083,7 @@
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -6368,170 +6108,170 @@
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B47" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="36" t="s">
         <v>245</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>247</v>
       </c>
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
@@ -6554,15 +6294,15 @@
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
@@ -6585,1161 +6325,1159 @@
       <c r="V49" s="21"/>
       <c r="W49" s="21"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" t="s">
         <v>250</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
         <v>251</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" t="s">
-        <v>250</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" t="s">
         <v>253</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" t="s">
-        <v>250</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" t="s">
         <v>255</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" t="s">
-        <v>250</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" t="s">
         <v>257</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" t="s">
-        <v>250</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B58" s="36" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" t="s">
-        <v>250</v>
-      </c>
-      <c r="B56" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="36" t="s">
+      <c r="C58" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="B58" s="36" t="s">
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C59" s="36" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" s="36" t="s">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C60" s="36" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="B60" s="36" t="s">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="B63" s="21" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="21" t="s">
+      <c r="C63" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="B63" s="21" t="s">
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C64" s="36" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B64" s="21" t="s">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C65" s="36" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B65" s="21" t="s">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C66" s="36" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B66" s="21" t="s">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C67" s="36" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B67" s="21" t="s">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>277</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="B69" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
         <v>279</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70" t="s">
         <v>280</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" t="s">
-        <v>279</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>282</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B72" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" t="s">
+      <c r="C72" s="43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>282</v>
+      </c>
+      <c r="B73" t="s">
         <v>284</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C73" t="s">
         <v>285</v>
       </c>
-      <c r="C72" s="43" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" t="s">
-        <v>284</v>
-      </c>
-      <c r="B73" t="s">
-        <v>286</v>
-      </c>
-      <c r="C73" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
 </file>